--- a/Confinement_Scores.xlsx
+++ b/Confinement_Scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="873">
   <si>
     <t>ReachName</t>
   </si>
@@ -2534,9 +2534,6 @@
   </si>
   <si>
     <t>Phelps Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek </t>
   </si>
   <si>
     <t>Methow River-McFarland Creek</t>
@@ -3042,7 +3039,7 @@
         <v>749</v>
       </c>
       <c r="D2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E2">
         <v>0.277309</v>
@@ -3071,7 +3068,7 @@
         <v>750</v>
       </c>
       <c r="D3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E3">
         <v>0.750322</v>
@@ -3103,7 +3100,7 @@
         <v>751</v>
       </c>
       <c r="D4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E4">
         <v>0.783957</v>
@@ -3135,7 +3132,7 @@
         <v>751</v>
       </c>
       <c r="D5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E5">
         <v>0.904454</v>
@@ -3167,7 +3164,7 @@
         <v>751</v>
       </c>
       <c r="D6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E6">
         <v>0.736719</v>
@@ -3199,7 +3196,7 @@
         <v>752</v>
       </c>
       <c r="D7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E7">
         <v>0.059351</v>
@@ -3231,7 +3228,7 @@
         <v>753</v>
       </c>
       <c r="D8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E8">
         <v>0.217066</v>
@@ -3260,7 +3257,7 @@
         <v>753</v>
       </c>
       <c r="D9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E9">
         <v>0.453383</v>
@@ -3289,7 +3286,7 @@
         <v>753</v>
       </c>
       <c r="D10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E10">
         <v>0.245555</v>
@@ -3321,7 +3318,7 @@
         <v>753</v>
       </c>
       <c r="D11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E11">
         <v>0.646528</v>
@@ -3353,7 +3350,7 @@
         <v>753</v>
       </c>
       <c r="D12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E12">
         <v>0.249643</v>
@@ -3385,7 +3382,7 @@
         <v>753</v>
       </c>
       <c r="D13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E13">
         <v>1.426062</v>
@@ -3417,7 +3414,7 @@
         <v>750</v>
       </c>
       <c r="D14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F14">
         <v>1.388638</v>
@@ -3446,7 +3443,7 @@
         <v>754</v>
       </c>
       <c r="D15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E15">
         <v>0.91521</v>
@@ -3478,7 +3475,7 @@
         <v>755</v>
       </c>
       <c r="D16" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E16">
         <v>0.576565</v>
@@ -3510,7 +3507,7 @@
         <v>756</v>
       </c>
       <c r="D17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E17">
         <v>0.361879</v>
@@ -3542,7 +3539,7 @@
         <v>757</v>
       </c>
       <c r="D18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E18">
         <v>0.347257</v>
@@ -3574,7 +3571,7 @@
         <v>755</v>
       </c>
       <c r="D19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E19">
         <v>1.048086</v>
@@ -3606,7 +3603,7 @@
         <v>758</v>
       </c>
       <c r="D20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E20">
         <v>0.082968</v>
@@ -3638,7 +3635,7 @@
         <v>757</v>
       </c>
       <c r="D21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E21">
         <v>0.668289</v>
@@ -3670,7 +3667,7 @@
         <v>757</v>
       </c>
       <c r="D22" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E22">
         <v>0.39108</v>
@@ -3702,7 +3699,7 @@
         <v>757</v>
       </c>
       <c r="D23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E23">
         <v>0.650387</v>
@@ -3734,7 +3731,7 @@
         <v>757</v>
       </c>
       <c r="D24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E24">
         <v>1.025045</v>
@@ -3766,7 +3763,7 @@
         <v>757</v>
       </c>
       <c r="D25" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E25">
         <v>0.6870540000000001</v>
@@ -3798,7 +3795,7 @@
         <v>757</v>
       </c>
       <c r="D26" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E26">
         <v>0.669137</v>
@@ -3830,7 +3827,7 @@
         <v>757</v>
       </c>
       <c r="D27" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F27">
         <v>1.052566</v>
@@ -3859,7 +3856,7 @@
         <v>759</v>
       </c>
       <c r="D28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E28">
         <v>0.775656</v>
@@ -3891,7 +3888,7 @@
         <v>759</v>
       </c>
       <c r="D29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E29">
         <v>0.071523</v>
@@ -3923,7 +3920,7 @@
         <v>759</v>
       </c>
       <c r="D30" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F30">
         <v>0.349357</v>
@@ -3952,7 +3949,7 @@
         <v>759</v>
       </c>
       <c r="D31" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F31">
         <v>3.120785</v>
@@ -3981,7 +3978,7 @@
         <v>760</v>
       </c>
       <c r="D32" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E32">
         <v>0.07768799999999999</v>
@@ -4013,7 +4010,7 @@
         <v>760</v>
       </c>
       <c r="D33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F33">
         <v>1.828217</v>
@@ -4042,7 +4039,7 @@
         <v>760</v>
       </c>
       <c r="D34" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F34">
         <v>0.853795</v>
@@ -4071,7 +4068,7 @@
         <v>760</v>
       </c>
       <c r="D35" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E35">
         <v>0.378905</v>
@@ -4103,7 +4100,7 @@
         <v>760</v>
       </c>
       <c r="D36" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E36">
         <v>0.353297</v>
@@ -4135,7 +4132,7 @@
         <v>761</v>
       </c>
       <c r="D37" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F37">
         <v>1.59934</v>
@@ -4164,7 +4161,7 @@
         <v>762</v>
       </c>
       <c r="D38" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E38">
         <v>0.157824</v>
@@ -4196,7 +4193,7 @@
         <v>762</v>
       </c>
       <c r="D39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F39">
         <v>0.838215</v>
@@ -4225,7 +4222,7 @@
         <v>762</v>
       </c>
       <c r="D40" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F40">
         <v>1.907251</v>
@@ -4254,7 +4251,7 @@
         <v>762</v>
       </c>
       <c r="D41" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F41">
         <v>1.389962</v>
@@ -4283,7 +4280,7 @@
         <v>759</v>
       </c>
       <c r="D42" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E42">
         <v>0.036037</v>
@@ -4315,7 +4312,7 @@
         <v>763</v>
       </c>
       <c r="D43" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E43">
         <v>0.369644</v>
@@ -4347,7 +4344,7 @@
         <v>758</v>
       </c>
       <c r="D44" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E44">
         <v>0.334143</v>
@@ -4379,7 +4376,7 @@
         <v>758</v>
       </c>
       <c r="D45" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E45">
         <v>3.575223</v>
@@ -4411,7 +4408,7 @@
         <v>764</v>
       </c>
       <c r="D46" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E46">
         <v>0.349824</v>
@@ -4443,7 +4440,7 @@
         <v>758</v>
       </c>
       <c r="D47" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F47">
         <v>0.546755</v>
@@ -4472,7 +4469,7 @@
         <v>765</v>
       </c>
       <c r="D48" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E48">
         <v>0.842552</v>
@@ -4504,7 +4501,7 @@
         <v>750</v>
       </c>
       <c r="D49" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E49">
         <v>0.225947</v>
@@ -4536,7 +4533,7 @@
         <v>750</v>
       </c>
       <c r="D50" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E50">
         <v>0.172058</v>
@@ -4568,7 +4565,7 @@
         <v>766</v>
       </c>
       <c r="D51" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F51">
         <v>0.563445</v>
@@ -4597,7 +4594,7 @@
         <v>767</v>
       </c>
       <c r="D52" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E52">
         <v>0.203291</v>
@@ -4629,7 +4626,7 @@
         <v>768</v>
       </c>
       <c r="D53" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E53">
         <v>0.04963</v>
@@ -4661,7 +4658,7 @@
         <v>769</v>
       </c>
       <c r="D54" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E54">
         <v>0.683141</v>
@@ -4690,7 +4687,7 @@
         <v>769</v>
       </c>
       <c r="D55" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E55">
         <v>0.375629</v>
@@ -4722,7 +4719,7 @@
         <v>769</v>
       </c>
       <c r="D56" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E56">
         <v>0.248799</v>
@@ -4754,7 +4751,7 @@
         <v>769</v>
       </c>
       <c r="D57" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E57">
         <v>0.086576</v>
@@ -4786,7 +4783,7 @@
         <v>770</v>
       </c>
       <c r="D58" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E58">
         <v>0.372867</v>
@@ -4818,7 +4815,7 @@
         <v>770</v>
       </c>
       <c r="D59" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E59">
         <v>0.421092</v>
@@ -4850,7 +4847,7 @@
         <v>770</v>
       </c>
       <c r="D60" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F60">
         <v>0.593074</v>
@@ -4879,7 +4876,7 @@
         <v>770</v>
       </c>
       <c r="D61" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F61">
         <v>1.085168</v>
@@ -4908,7 +4905,7 @@
         <v>770</v>
       </c>
       <c r="D62" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E62">
         <v>0.280917</v>
@@ -4940,7 +4937,7 @@
         <v>766</v>
       </c>
       <c r="D63" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E63">
         <v>0.376233</v>
@@ -4972,7 +4969,7 @@
         <v>750</v>
       </c>
       <c r="D64" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E64">
         <v>1.598516</v>
@@ -5004,7 +5001,7 @@
         <v>750</v>
       </c>
       <c r="D65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E65">
         <v>0.602521</v>
@@ -5036,7 +5033,7 @@
         <v>750</v>
       </c>
       <c r="D66" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E66">
         <v>0.818099</v>
@@ -5068,7 +5065,7 @@
         <v>750</v>
       </c>
       <c r="D67" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E67">
         <v>0.526914</v>
@@ -5100,7 +5097,7 @@
         <v>771</v>
       </c>
       <c r="D68" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E68">
         <v>0.190353</v>
@@ -5132,7 +5129,7 @@
         <v>772</v>
       </c>
       <c r="D69" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E69">
         <v>0.378045</v>
@@ -5164,7 +5161,7 @@
         <v>750</v>
       </c>
       <c r="D70" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E70">
         <v>0.284754</v>
@@ -5196,7 +5193,7 @@
         <v>772</v>
       </c>
       <c r="D71" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E71">
         <v>0.048082</v>
@@ -5228,7 +5225,7 @@
         <v>772</v>
       </c>
       <c r="D72" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E72">
         <v>0.228691</v>
@@ -5260,7 +5257,7 @@
         <v>772</v>
       </c>
       <c r="D73" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E73">
         <v>0.008972000000000001</v>
@@ -5292,7 +5289,7 @@
         <v>772</v>
       </c>
       <c r="D74" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F74">
         <v>0.765486</v>
@@ -5321,7 +5318,7 @@
         <v>772</v>
       </c>
       <c r="D75" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F75">
         <v>2.789413</v>
@@ -5350,7 +5347,7 @@
         <v>772</v>
       </c>
       <c r="D76" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F76">
         <v>1.123206</v>
@@ -5379,7 +5376,7 @@
         <v>773</v>
       </c>
       <c r="D77" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E77">
         <v>0.046187</v>
@@ -5411,7 +5408,7 @@
         <v>774</v>
       </c>
       <c r="D78" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E78">
         <v>0.376569</v>
@@ -5443,7 +5440,7 @@
         <v>774</v>
       </c>
       <c r="D79" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E79">
         <v>0.580164</v>
@@ -5475,7 +5472,7 @@
         <v>774</v>
       </c>
       <c r="D80" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E80">
         <v>0.28071</v>
@@ -5507,7 +5504,7 @@
         <v>774</v>
       </c>
       <c r="D81" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E81">
         <v>0.406468</v>
@@ -5539,7 +5536,7 @@
         <v>774</v>
       </c>
       <c r="D82" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E82">
         <v>0.279</v>
@@ -5568,7 +5565,7 @@
         <v>774</v>
       </c>
       <c r="D83" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E83">
         <v>0.78782</v>
@@ -5600,7 +5597,7 @@
         <v>774</v>
       </c>
       <c r="D84" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E84">
         <v>1.783211</v>
@@ -5632,7 +5629,7 @@
         <v>775</v>
       </c>
       <c r="D85" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E85">
         <v>0.386578</v>
@@ -5664,7 +5661,7 @@
         <v>775</v>
       </c>
       <c r="D86" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E86">
         <v>0.788758</v>
@@ -5696,7 +5693,7 @@
         <v>775</v>
       </c>
       <c r="D87" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E87">
         <v>1.665292</v>
@@ -5728,7 +5725,7 @@
         <v>775</v>
       </c>
       <c r="D88" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E88">
         <v>0.565543</v>
@@ -5760,7 +5757,7 @@
         <v>775</v>
       </c>
       <c r="D89" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E89">
         <v>1.573406</v>
@@ -5792,7 +5789,7 @@
         <v>775</v>
       </c>
       <c r="D90" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E90">
         <v>0.693917</v>
@@ -5824,7 +5821,7 @@
         <v>775</v>
       </c>
       <c r="D91" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E91">
         <v>1.193159</v>
@@ -5856,7 +5853,7 @@
         <v>775</v>
       </c>
       <c r="D92" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E92">
         <v>1.584256</v>
@@ -5888,7 +5885,7 @@
         <v>776</v>
       </c>
       <c r="D93" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E93">
         <v>0.949462</v>
@@ -5920,7 +5917,7 @@
         <v>776</v>
       </c>
       <c r="D94" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E94">
         <v>1.359285</v>
@@ -5952,7 +5949,7 @@
         <v>776</v>
       </c>
       <c r="D95" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E95">
         <v>2.37626</v>
@@ -5984,7 +5981,7 @@
         <v>776</v>
       </c>
       <c r="D96" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E96">
         <v>1.774623</v>
@@ -6016,7 +6013,7 @@
         <v>776</v>
       </c>
       <c r="D97" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E97">
         <v>1.323558</v>
@@ -6045,7 +6042,7 @@
         <v>776</v>
       </c>
       <c r="D98" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E98">
         <v>0.302291</v>
@@ -6074,7 +6071,7 @@
         <v>756</v>
       </c>
       <c r="D99" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E99">
         <v>1.74769</v>
@@ -6103,7 +6100,7 @@
         <v>756</v>
       </c>
       <c r="D100" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E100">
         <v>0.661328</v>
@@ -6132,7 +6129,7 @@
         <v>756</v>
       </c>
       <c r="D101" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E101">
         <v>0.726622</v>
@@ -6164,7 +6161,7 @@
         <v>756</v>
       </c>
       <c r="D102" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E102">
         <v>0.909601</v>
@@ -6196,7 +6193,7 @@
         <v>774</v>
       </c>
       <c r="D103" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E103">
         <v>0.629627</v>
@@ -6228,7 +6225,7 @@
         <v>773</v>
       </c>
       <c r="D104" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F104">
         <v>2.074516</v>
@@ -6257,7 +6254,7 @@
         <v>750</v>
       </c>
       <c r="D105" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E105">
         <v>0.973131</v>
@@ -6289,7 +6286,7 @@
         <v>750</v>
       </c>
       <c r="D106" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E106">
         <v>0.332511</v>
@@ -6321,7 +6318,7 @@
         <v>777</v>
       </c>
       <c r="D107" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E107">
         <v>0.485875</v>
@@ -6353,7 +6350,7 @@
         <v>777</v>
       </c>
       <c r="D108" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E108">
         <v>2.136614</v>
@@ -6385,7 +6382,7 @@
         <v>777</v>
       </c>
       <c r="D109" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E109">
         <v>2.215663</v>
@@ -6417,7 +6414,7 @@
         <v>777</v>
       </c>
       <c r="D110" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E110">
         <v>2.207996</v>
@@ -6449,7 +6446,7 @@
         <v>778</v>
       </c>
       <c r="D111" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E111">
         <v>0.096927</v>
@@ -6481,7 +6478,7 @@
         <v>771</v>
       </c>
       <c r="D112" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E112">
         <v>1.494098</v>
@@ -6513,7 +6510,7 @@
         <v>771</v>
       </c>
       <c r="D113" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E113">
         <v>1.012256</v>
@@ -6542,7 +6539,7 @@
         <v>779</v>
       </c>
       <c r="D114" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E114">
         <v>0.921426</v>
@@ -6574,7 +6571,7 @@
         <v>771</v>
       </c>
       <c r="D115" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E115">
         <v>0.368238</v>
@@ -6603,7 +6600,7 @@
         <v>779</v>
       </c>
       <c r="D116" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E116">
         <v>2.012452</v>
@@ -6635,7 +6632,7 @@
         <v>779</v>
       </c>
       <c r="D117" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E117">
         <v>2.102589</v>
@@ -6667,7 +6664,7 @@
         <v>779</v>
       </c>
       <c r="D118" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E118">
         <v>1.855575</v>
@@ -6699,7 +6696,7 @@
         <v>779</v>
       </c>
       <c r="D119" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E119">
         <v>1.732129</v>
@@ -6731,7 +6728,7 @@
         <v>779</v>
       </c>
       <c r="D120" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E120">
         <v>0.786477</v>
@@ -6763,7 +6760,7 @@
         <v>780</v>
       </c>
       <c r="D121" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E121">
         <v>0.230295</v>
@@ -6795,7 +6792,7 @@
         <v>780</v>
       </c>
       <c r="D122" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E122">
         <v>1.184587</v>
@@ -6827,7 +6824,7 @@
         <v>780</v>
       </c>
       <c r="D123" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E123">
         <v>1.565395</v>
@@ -6859,7 +6856,7 @@
         <v>781</v>
       </c>
       <c r="D124" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E124">
         <v>1.316252</v>
@@ -6891,7 +6888,7 @@
         <v>781</v>
       </c>
       <c r="D125" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E125">
         <v>1.334258</v>
@@ -6923,7 +6920,7 @@
         <v>781</v>
       </c>
       <c r="D126" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E126">
         <v>0.696704</v>
@@ -6952,7 +6949,7 @@
         <v>781</v>
       </c>
       <c r="D127" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E127">
         <v>1.618804</v>
@@ -6984,7 +6981,7 @@
         <v>781</v>
       </c>
       <c r="D128" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E128">
         <v>0.803636</v>
@@ -7013,7 +7010,7 @@
         <v>781</v>
       </c>
       <c r="D129" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E129">
         <v>0.806192</v>
@@ -7045,7 +7042,7 @@
         <v>771</v>
       </c>
       <c r="D130" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E130">
         <v>1.358847</v>
@@ -7077,7 +7074,7 @@
         <v>780</v>
       </c>
       <c r="D131" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E131">
         <v>2.031167</v>
@@ -7109,7 +7106,7 @@
         <v>771</v>
       </c>
       <c r="D132" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E132">
         <v>2.215451</v>
@@ -7141,7 +7138,7 @@
         <v>771</v>
       </c>
       <c r="D133" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E133">
         <v>1.628209</v>
@@ -7173,7 +7170,7 @@
         <v>780</v>
       </c>
       <c r="D134" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E134">
         <v>0.608142</v>
@@ -7205,7 +7202,7 @@
         <v>780</v>
       </c>
       <c r="D135" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E135">
         <v>0.851791</v>
@@ -7234,7 +7231,7 @@
         <v>780</v>
       </c>
       <c r="D136" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E136">
         <v>1.01959</v>
@@ -7266,7 +7263,7 @@
         <v>780</v>
       </c>
       <c r="D137" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E137">
         <v>0.677883</v>
@@ -7298,7 +7295,7 @@
         <v>780</v>
       </c>
       <c r="D138" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E138">
         <v>0.055508</v>
@@ -7330,7 +7327,7 @@
         <v>782</v>
       </c>
       <c r="D139" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E139">
         <v>0.785386</v>
@@ -7359,7 +7356,7 @@
         <v>783</v>
       </c>
       <c r="D140" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E140">
         <v>0.616391</v>
@@ -7391,7 +7388,7 @@
         <v>784</v>
       </c>
       <c r="D141" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E141">
         <v>0.526419</v>
@@ -7423,7 +7420,7 @@
         <v>750</v>
       </c>
       <c r="D142" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E142">
         <v>0.466707</v>
@@ -7455,7 +7452,7 @@
         <v>771</v>
       </c>
       <c r="D143" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E143">
         <v>0.647973</v>
@@ -7487,7 +7484,7 @@
         <v>771</v>
       </c>
       <c r="D144" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E144">
         <v>1.73318</v>
@@ -7519,7 +7516,7 @@
         <v>771</v>
       </c>
       <c r="D145" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E145">
         <v>0.957327</v>
@@ -7551,7 +7548,7 @@
         <v>785</v>
       </c>
       <c r="D146" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E146">
         <v>0.766239</v>
@@ -7583,7 +7580,7 @@
         <v>785</v>
       </c>
       <c r="D147" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E147">
         <v>0.09302199999999999</v>
@@ -7615,7 +7612,7 @@
         <v>785</v>
       </c>
       <c r="D148" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E148">
         <v>0.483435</v>
@@ -7647,7 +7644,7 @@
         <v>786</v>
       </c>
       <c r="D149" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E149">
         <v>0.8078340000000001</v>
@@ -7679,7 +7676,7 @@
         <v>786</v>
       </c>
       <c r="D150" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E150">
         <v>0.94892</v>
@@ -7711,7 +7708,7 @@
         <v>786</v>
       </c>
       <c r="D151" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E151">
         <v>1.659419</v>
@@ -7743,7 +7740,7 @@
         <v>786</v>
       </c>
       <c r="D152" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E152">
         <v>1.50522</v>
@@ -7775,7 +7772,7 @@
         <v>786</v>
       </c>
       <c r="D153" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E153">
         <v>1.322238</v>
@@ -7804,7 +7801,7 @@
         <v>786</v>
       </c>
       <c r="D154" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E154">
         <v>0.376936</v>
@@ -7833,7 +7830,7 @@
         <v>786</v>
       </c>
       <c r="D155" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E155">
         <v>0.971275</v>
@@ -7865,7 +7862,7 @@
         <v>786</v>
       </c>
       <c r="D156" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E156">
         <v>0.754105</v>
@@ -7897,7 +7894,7 @@
         <v>786</v>
       </c>
       <c r="D157" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E157">
         <v>0.01599</v>
@@ -7929,7 +7926,7 @@
         <v>786</v>
       </c>
       <c r="D158" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E158">
         <v>0.6660239999999999</v>
@@ -7961,7 +7958,7 @@
         <v>786</v>
       </c>
       <c r="D159" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E159">
         <v>1.128335</v>
@@ -7993,7 +7990,7 @@
         <v>787</v>
       </c>
       <c r="D160" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E160">
         <v>0.385367</v>
@@ -8025,7 +8022,7 @@
         <v>787</v>
       </c>
       <c r="D161" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E161">
         <v>0.685542</v>
@@ -8057,7 +8054,7 @@
         <v>787</v>
       </c>
       <c r="D162" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E162">
         <v>0.849105</v>
@@ -8089,7 +8086,7 @@
         <v>787</v>
       </c>
       <c r="D163" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E163">
         <v>1.738195</v>
@@ -8121,7 +8118,7 @@
         <v>787</v>
       </c>
       <c r="D164" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E164">
         <v>1.441283</v>
@@ -8153,7 +8150,7 @@
         <v>788</v>
       </c>
       <c r="D165" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E165">
         <v>0.087281</v>
@@ -8185,7 +8182,7 @@
         <v>788</v>
       </c>
       <c r="D166" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F166">
         <v>1.050289</v>
@@ -8214,7 +8211,7 @@
         <v>788</v>
       </c>
       <c r="D167" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F167">
         <v>0.381085</v>
@@ -8243,7 +8240,7 @@
         <v>789</v>
       </c>
       <c r="D168" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E168">
         <v>0.226196</v>
@@ -8275,7 +8272,7 @@
         <v>790</v>
       </c>
       <c r="D169" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E169">
         <v>0.126092</v>
@@ -8307,7 +8304,7 @@
         <v>771</v>
       </c>
       <c r="D170" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E170">
         <v>0.20242</v>
@@ -8336,7 +8333,7 @@
         <v>791</v>
       </c>
       <c r="D171" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E171">
         <v>0.069018</v>
@@ -8368,7 +8365,7 @@
         <v>792</v>
       </c>
       <c r="D172" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E172">
         <v>0.153373</v>
@@ -8400,7 +8397,7 @@
         <v>792</v>
       </c>
       <c r="D173" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E173">
         <v>0.153206</v>
@@ -8432,7 +8429,7 @@
         <v>793</v>
       </c>
       <c r="D174" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E174">
         <v>1.271525</v>
@@ -8464,7 +8461,7 @@
         <v>793</v>
       </c>
       <c r="D175" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E175">
         <v>0.218777</v>
@@ -8496,7 +8493,7 @@
         <v>793</v>
       </c>
       <c r="D176" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E176">
         <v>0.434232</v>
@@ -8528,7 +8525,7 @@
         <v>793</v>
       </c>
       <c r="D177" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E177">
         <v>0.7393960000000001</v>
@@ -8560,7 +8557,7 @@
         <v>793</v>
       </c>
       <c r="D178" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E178">
         <v>1.782494</v>
@@ -8592,7 +8589,7 @@
         <v>794</v>
       </c>
       <c r="D179" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E179">
         <v>0.313582</v>
@@ -8624,7 +8621,7 @@
         <v>794</v>
       </c>
       <c r="D180" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E180">
         <v>0.721369</v>
@@ -8656,7 +8653,7 @@
         <v>750</v>
       </c>
       <c r="D181" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E181">
         <v>0.134998</v>
@@ -8688,7 +8685,7 @@
         <v>767</v>
       </c>
       <c r="D182" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E182">
         <v>0.8643150000000001</v>
@@ -8720,7 +8717,7 @@
         <v>755</v>
       </c>
       <c r="D183" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E183">
         <v>0.174165</v>
@@ -8752,7 +8749,7 @@
         <v>795</v>
       </c>
       <c r="D184" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E184">
         <v>0.115446</v>
@@ -8784,7 +8781,7 @@
         <v>795</v>
       </c>
       <c r="D185" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F185">
         <v>1.395328</v>
@@ -8813,7 +8810,7 @@
         <v>795</v>
       </c>
       <c r="D186" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F186">
         <v>0.8290650000000001</v>
@@ -8842,7 +8839,7 @@
         <v>796</v>
       </c>
       <c r="D187" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E187">
         <v>0.687409</v>
@@ -8874,7 +8871,7 @@
         <v>797</v>
       </c>
       <c r="D188" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F188">
         <v>1.115927</v>
@@ -8903,7 +8900,7 @@
         <v>797</v>
       </c>
       <c r="D189" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F189">
         <v>1.741936</v>
@@ -8932,7 +8929,7 @@
         <v>798</v>
       </c>
       <c r="D190" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F190">
         <v>0.718345</v>
@@ -8961,7 +8958,7 @@
         <v>755</v>
       </c>
       <c r="D191" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E191">
         <v>0.223598</v>
@@ -8993,7 +8990,7 @@
         <v>755</v>
       </c>
       <c r="D192" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E192">
         <v>0.639592</v>
@@ -9025,7 +9022,7 @@
         <v>799</v>
       </c>
       <c r="D193" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E193">
         <v>0.06826400000000001</v>
@@ -9057,7 +9054,7 @@
         <v>800</v>
       </c>
       <c r="D194" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E194">
         <v>0.32532</v>
@@ -9089,7 +9086,7 @@
         <v>800</v>
       </c>
       <c r="D195" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E195">
         <v>0.119904</v>
@@ -9121,7 +9118,7 @@
         <v>800</v>
       </c>
       <c r="D196" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E196">
         <v>0.883782</v>
@@ -9153,7 +9150,7 @@
         <v>800</v>
       </c>
       <c r="D197" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E197">
         <v>0.499223</v>
@@ -9185,7 +9182,7 @@
         <v>800</v>
       </c>
       <c r="D198" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E198">
         <v>0.31769</v>
@@ -9217,7 +9214,7 @@
         <v>801</v>
       </c>
       <c r="D199" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E199">
         <v>0.970951</v>
@@ -9249,7 +9246,7 @@
         <v>801</v>
       </c>
       <c r="D200" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E200">
         <v>0.514286</v>
@@ -9281,7 +9278,7 @@
         <v>794</v>
       </c>
       <c r="D201" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E201">
         <v>0.894427</v>
@@ -9313,7 +9310,7 @@
         <v>802</v>
       </c>
       <c r="D202" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E202">
         <v>2.258904</v>
@@ -9342,7 +9339,7 @@
         <v>802</v>
       </c>
       <c r="D203" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E203">
         <v>2.229406</v>
@@ -9371,7 +9368,7 @@
         <v>803</v>
       </c>
       <c r="D204" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E204">
         <v>1.864156</v>
@@ -9400,7 +9397,7 @@
         <v>803</v>
       </c>
       <c r="D205" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E205">
         <v>1.877473</v>
@@ -9429,7 +9426,7 @@
         <v>803</v>
       </c>
       <c r="D206" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E206">
         <v>1.804594</v>
@@ -9458,7 +9455,7 @@
         <v>803</v>
       </c>
       <c r="D207" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E207">
         <v>1.853424</v>
@@ -9487,7 +9484,7 @@
         <v>803</v>
       </c>
       <c r="D208" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E208">
         <v>1.898018</v>
@@ -9516,7 +9513,7 @@
         <v>803</v>
       </c>
       <c r="D209" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E209">
         <v>1.794063</v>
@@ -9545,7 +9542,7 @@
         <v>803</v>
       </c>
       <c r="D210" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E210">
         <v>1.729847</v>
@@ -9574,7 +9571,7 @@
         <v>764</v>
       </c>
       <c r="D211" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E211">
         <v>1.604978</v>
@@ -9603,7 +9600,7 @@
         <v>804</v>
       </c>
       <c r="D212" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E212">
         <v>1.407816</v>
@@ -9635,7 +9632,7 @@
         <v>804</v>
       </c>
       <c r="D213" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E213">
         <v>2.234095</v>
@@ -9664,7 +9661,7 @@
         <v>804</v>
       </c>
       <c r="D214" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E214">
         <v>1.026418</v>
@@ -9693,7 +9690,7 @@
         <v>804</v>
       </c>
       <c r="D215" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E215">
         <v>2.618868</v>
@@ -9722,7 +9719,7 @@
         <v>804</v>
       </c>
       <c r="D216" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E216">
         <v>2.63159</v>
@@ -9751,7 +9748,7 @@
         <v>804</v>
       </c>
       <c r="D217" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E217">
         <v>2.515758</v>
@@ -9780,7 +9777,7 @@
         <v>804</v>
       </c>
       <c r="D218" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E218">
         <v>1.289165</v>
@@ -9809,7 +9806,7 @@
         <v>804</v>
       </c>
       <c r="D219" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E219">
         <v>0.909789</v>
@@ -9838,7 +9835,7 @@
         <v>804</v>
       </c>
       <c r="D220" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E220">
         <v>1.580537</v>
@@ -9867,7 +9864,7 @@
         <v>804</v>
       </c>
       <c r="D221" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E221">
         <v>0.8837120000000001</v>
@@ -9896,7 +9893,7 @@
         <v>804</v>
       </c>
       <c r="D222" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E222">
         <v>1.123941</v>
@@ -9928,7 +9925,7 @@
         <v>804</v>
       </c>
       <c r="D223" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E223">
         <v>1.208783</v>
@@ -9960,7 +9957,7 @@
         <v>804</v>
       </c>
       <c r="D224" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E224">
         <v>0.380617</v>
@@ -9989,7 +9986,7 @@
         <v>801</v>
       </c>
       <c r="D225" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E225">
         <v>1.267687</v>
@@ -10021,7 +10018,7 @@
         <v>805</v>
       </c>
       <c r="D226" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E226">
         <v>2.847954</v>
@@ -10050,7 +10047,7 @@
         <v>805</v>
       </c>
       <c r="D227" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E227">
         <v>2.118328</v>
@@ -10082,7 +10079,7 @@
         <v>805</v>
       </c>
       <c r="D228" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E228">
         <v>1.389322</v>
@@ -10111,7 +10108,7 @@
         <v>805</v>
       </c>
       <c r="D229" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E229">
         <v>2.722166</v>
@@ -10140,7 +10137,7 @@
         <v>805</v>
       </c>
       <c r="D230" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E230">
         <v>1.285683</v>
@@ -10169,7 +10166,7 @@
         <v>805</v>
       </c>
       <c r="D231" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E231">
         <v>1.624341</v>
@@ -10198,7 +10195,7 @@
         <v>805</v>
       </c>
       <c r="D232" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E232">
         <v>1.616128</v>
@@ -10227,7 +10224,7 @@
         <v>805</v>
       </c>
       <c r="D233" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E233">
         <v>1.351531</v>
@@ -10256,7 +10253,7 @@
         <v>764</v>
       </c>
       <c r="D234" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E234">
         <v>0.967793</v>
@@ -10285,7 +10282,7 @@
         <v>764</v>
       </c>
       <c r="D235" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E235">
         <v>0.889644</v>
@@ -10314,7 +10311,7 @@
         <v>764</v>
       </c>
       <c r="D236" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E236">
         <v>2.651491</v>
@@ -10343,7 +10340,7 @@
         <v>764</v>
       </c>
       <c r="D237" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E237">
         <v>2.672354</v>
@@ -10372,7 +10369,7 @@
         <v>764</v>
       </c>
       <c r="D238" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E238">
         <v>1.342294</v>
@@ -10401,7 +10398,7 @@
         <v>764</v>
       </c>
       <c r="D239" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E239">
         <v>1.330285</v>
@@ -10430,7 +10427,7 @@
         <v>764</v>
       </c>
       <c r="D240" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E240">
         <v>0.844617</v>
@@ -10462,7 +10459,7 @@
         <v>804</v>
       </c>
       <c r="D241" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E241">
         <v>2.622489</v>
@@ -10491,7 +10488,7 @@
         <v>806</v>
       </c>
       <c r="D242" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E242">
         <v>1.236063</v>
@@ -10523,7 +10520,7 @@
         <v>806</v>
       </c>
       <c r="D243" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E243">
         <v>1.341366</v>
@@ -10555,7 +10552,7 @@
         <v>806</v>
       </c>
       <c r="D244" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E244">
         <v>2.14731</v>
@@ -10587,7 +10584,7 @@
         <v>806</v>
       </c>
       <c r="D245" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E245">
         <v>1.63121</v>
@@ -10616,7 +10613,7 @@
         <v>806</v>
       </c>
       <c r="D246" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E246">
         <v>2.099143</v>
@@ -10645,7 +10642,7 @@
         <v>806</v>
       </c>
       <c r="D247" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E247">
         <v>0.553743</v>
@@ -10677,7 +10674,7 @@
         <v>807</v>
       </c>
       <c r="D248" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E248">
         <v>1.13611</v>
@@ -10709,7 +10706,7 @@
         <v>807</v>
       </c>
       <c r="D249" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E249">
         <v>1.327621</v>
@@ -10741,7 +10738,7 @@
         <v>807</v>
       </c>
       <c r="D250" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E250">
         <v>0.5910069999999999</v>
@@ -10773,7 +10770,7 @@
         <v>808</v>
       </c>
       <c r="D251" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E251">
         <v>1.553778</v>
@@ -10805,7 +10802,7 @@
         <v>808</v>
       </c>
       <c r="D252" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E252">
         <v>1.440075</v>
@@ -10837,7 +10834,7 @@
         <v>809</v>
       </c>
       <c r="D253" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E253">
         <v>1.514342</v>
@@ -10869,7 +10866,7 @@
         <v>809</v>
       </c>
       <c r="D254" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E254">
         <v>1.934163</v>
@@ -10901,7 +10898,7 @@
         <v>780</v>
       </c>
       <c r="D255" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E255">
         <v>0.190645</v>
@@ -10933,7 +10930,7 @@
         <v>750</v>
       </c>
       <c r="D256" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E256">
         <v>0.78365</v>
@@ -10965,7 +10962,7 @@
         <v>767</v>
       </c>
       <c r="D257" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E257">
         <v>0.212519</v>
@@ -10994,7 +10991,7 @@
         <v>750</v>
       </c>
       <c r="D258" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E258">
         <v>0.277359</v>
@@ -11026,7 +11023,7 @@
         <v>768</v>
       </c>
       <c r="D259" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E259">
         <v>0.092602</v>
@@ -11058,7 +11055,7 @@
         <v>810</v>
       </c>
       <c r="D260" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F260">
         <v>1.000541</v>
@@ -11087,7 +11084,7 @@
         <v>811</v>
       </c>
       <c r="D261" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E261">
         <v>1.228733</v>
@@ -11119,7 +11116,7 @@
         <v>776</v>
       </c>
       <c r="D262" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E262">
         <v>0.30904</v>
@@ -11151,7 +11148,7 @@
         <v>811</v>
       </c>
       <c r="D263" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E263">
         <v>1.644068</v>
@@ -11183,7 +11180,7 @@
         <v>811</v>
       </c>
       <c r="D264" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E264">
         <v>0.779519</v>
@@ -11212,7 +11209,7 @@
         <v>811</v>
       </c>
       <c r="D265" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E265">
         <v>0.419786</v>
@@ -11244,7 +11241,7 @@
         <v>794</v>
       </c>
       <c r="D266" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E266">
         <v>2.194507</v>
@@ -11273,7 +11270,7 @@
         <v>811</v>
       </c>
       <c r="D267" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E267">
         <v>0.148186</v>
@@ -11305,7 +11302,7 @@
         <v>812</v>
       </c>
       <c r="D268" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E268">
         <v>0.8298720000000001</v>
@@ -11337,7 +11334,7 @@
         <v>812</v>
       </c>
       <c r="D269" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E269">
         <v>0.943522</v>
@@ -11369,7 +11366,7 @@
         <v>812</v>
       </c>
       <c r="D270" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E270">
         <v>1.627409</v>
@@ -11401,7 +11398,7 @@
         <v>794</v>
       </c>
       <c r="D271" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E271">
         <v>1.844995</v>
@@ -11433,7 +11430,7 @@
         <v>811</v>
       </c>
       <c r="D272" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F272">
         <v>0.7936530000000001</v>
@@ -11462,7 +11459,7 @@
         <v>804</v>
       </c>
       <c r="D273" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E273">
         <v>1.391927</v>
@@ -11494,7 +11491,7 @@
         <v>813</v>
       </c>
       <c r="D274" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E274">
         <v>2.303892</v>
@@ -11523,7 +11520,7 @@
         <v>813</v>
       </c>
       <c r="D275" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E275">
         <v>1.144758</v>
@@ -11555,7 +11552,7 @@
         <v>813</v>
       </c>
       <c r="D276" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E276">
         <v>0.798384</v>
@@ -11584,7 +11581,7 @@
         <v>811</v>
       </c>
       <c r="D277" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E277">
         <v>0.302877</v>
@@ -11616,7 +11613,7 @@
         <v>811</v>
       </c>
       <c r="D278" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E278">
         <v>0.483831</v>
@@ -11648,7 +11645,7 @@
         <v>814</v>
       </c>
       <c r="D279" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F279">
         <v>0.616564</v>
@@ -11677,7 +11674,7 @@
         <v>814</v>
       </c>
       <c r="D280" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E280">
         <v>0.534348</v>
@@ -11709,7 +11706,7 @@
         <v>814</v>
       </c>
       <c r="D281" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E281">
         <v>0.179176</v>
@@ -11741,7 +11738,7 @@
         <v>808</v>
       </c>
       <c r="D282" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E282">
         <v>0.376462</v>
@@ -11773,7 +11770,7 @@
         <v>808</v>
       </c>
       <c r="D283" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E283">
         <v>0.141475</v>
@@ -11805,7 +11802,7 @@
         <v>814</v>
       </c>
       <c r="D284" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E284">
         <v>0.205649</v>
@@ -11837,7 +11834,7 @@
         <v>808</v>
       </c>
       <c r="D285" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E285">
         <v>0.356355</v>
@@ -11869,7 +11866,7 @@
         <v>801</v>
       </c>
       <c r="D286" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E286">
         <v>1.073512</v>
@@ -11898,7 +11895,7 @@
         <v>815</v>
       </c>
       <c r="D287" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E287">
         <v>0.443252</v>
@@ -11930,7 +11927,7 @@
         <v>794</v>
       </c>
       <c r="D288" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E288">
         <v>1.486892</v>
@@ -11962,7 +11959,7 @@
         <v>794</v>
       </c>
       <c r="D289" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E289">
         <v>0.8533579999999999</v>
@@ -11994,7 +11991,7 @@
         <v>794</v>
       </c>
       <c r="D290" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E290">
         <v>0.487743</v>
@@ -12026,7 +12023,7 @@
         <v>816</v>
       </c>
       <c r="D291" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F291">
         <v>0.299305</v>
@@ -12055,7 +12052,7 @@
         <v>817</v>
       </c>
       <c r="D292" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E292">
         <v>0.048671</v>
@@ -12087,7 +12084,7 @@
         <v>818</v>
       </c>
       <c r="D293" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E293">
         <v>0.379198</v>
@@ -12119,7 +12116,7 @@
         <v>819</v>
       </c>
       <c r="D294" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E294">
         <v>0.033841</v>
@@ -12151,7 +12148,7 @@
         <v>788</v>
       </c>
       <c r="D295" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E295">
         <v>0.283899</v>
@@ -12183,7 +12180,7 @@
         <v>788</v>
       </c>
       <c r="D296" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F296">
         <v>0.917284</v>
@@ -12212,7 +12209,7 @@
         <v>788</v>
       </c>
       <c r="D297" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F297">
         <v>0.653163</v>
@@ -12241,7 +12238,7 @@
         <v>788</v>
       </c>
       <c r="D298" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F298">
         <v>1.977772</v>
@@ -12270,7 +12267,7 @@
         <v>757</v>
       </c>
       <c r="D299" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E299">
         <v>0.769953</v>
@@ -12302,7 +12299,7 @@
         <v>757</v>
       </c>
       <c r="D300" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F300">
         <v>1.107511</v>
@@ -12331,7 +12328,7 @@
         <v>757</v>
       </c>
       <c r="D301" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E301">
         <v>0.313765</v>
@@ -12363,7 +12360,7 @@
         <v>820</v>
       </c>
       <c r="D302" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E302">
         <v>0.590519</v>
@@ -12392,7 +12389,7 @@
         <v>776</v>
       </c>
       <c r="D303" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E303">
         <v>0.271265</v>
@@ -12421,7 +12418,7 @@
         <v>821</v>
       </c>
       <c r="D304" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E304">
         <v>0.713854</v>
@@ -12450,7 +12447,7 @@
         <v>821</v>
       </c>
       <c r="D305" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E305">
         <v>0.5710150000000001</v>
@@ -12479,7 +12476,7 @@
         <v>820</v>
       </c>
       <c r="D306" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E306">
         <v>0.283191</v>
@@ -12511,7 +12508,7 @@
         <v>814</v>
       </c>
       <c r="D307" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E307">
         <v>1.307516</v>
@@ -12543,7 +12540,7 @@
         <v>814</v>
       </c>
       <c r="D308" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E308">
         <v>0.007393</v>
@@ -12575,7 +12572,7 @@
         <v>814</v>
       </c>
       <c r="D309" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E309">
         <v>0.331525</v>
@@ -12607,7 +12604,7 @@
         <v>814</v>
       </c>
       <c r="D310" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E310">
         <v>0.495411</v>
@@ -12639,7 +12636,7 @@
         <v>814</v>
       </c>
       <c r="D311" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E311">
         <v>0.452336</v>
@@ -12671,7 +12668,7 @@
         <v>814</v>
       </c>
       <c r="D312" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E312">
         <v>0.559652</v>
@@ -12703,7 +12700,7 @@
         <v>799</v>
       </c>
       <c r="D313" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E313">
         <v>0.55411</v>
@@ -12735,7 +12732,7 @@
         <v>799</v>
       </c>
       <c r="D314" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E314">
         <v>0.69156</v>
@@ -12767,7 +12764,7 @@
         <v>799</v>
       </c>
       <c r="D315" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E315">
         <v>0.831929</v>
@@ -12799,7 +12796,7 @@
         <v>799</v>
       </c>
       <c r="D316" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E316">
         <v>2.048122</v>
@@ -12831,7 +12828,7 @@
         <v>799</v>
       </c>
       <c r="D317" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E317">
         <v>0.704973</v>
@@ -12863,7 +12860,7 @@
         <v>799</v>
       </c>
       <c r="D318" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E318">
         <v>0.702852</v>
@@ -12895,7 +12892,7 @@
         <v>822</v>
       </c>
       <c r="D319" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E319">
         <v>0.146648</v>
@@ -12927,7 +12924,7 @@
         <v>822</v>
       </c>
       <c r="D320" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F320">
         <v>0.609389</v>
@@ -12956,7 +12953,7 @@
         <v>822</v>
       </c>
       <c r="D321" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F321">
         <v>5.564618</v>
@@ -12985,7 +12982,7 @@
         <v>823</v>
       </c>
       <c r="D322" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E322">
         <v>0.5701079999999999</v>
@@ -13017,7 +13014,7 @@
         <v>767</v>
       </c>
       <c r="D323" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E323">
         <v>0.072148</v>
@@ -13049,7 +13046,7 @@
         <v>824</v>
       </c>
       <c r="D324" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F324">
         <v>4.34241</v>
@@ -13078,7 +13075,7 @@
         <v>768</v>
       </c>
       <c r="D325" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E325">
         <v>0.131968</v>
@@ -13110,7 +13107,7 @@
         <v>799</v>
       </c>
       <c r="D326" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E326">
         <v>0.285395</v>
@@ -13142,7 +13139,7 @@
         <v>799</v>
       </c>
       <c r="D327" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E327">
         <v>0.662007</v>
@@ -13174,7 +13171,7 @@
         <v>799</v>
       </c>
       <c r="D328" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E328">
         <v>0.031443</v>
@@ -13206,7 +13203,7 @@
         <v>799</v>
       </c>
       <c r="D329" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E329">
         <v>0.090098</v>
@@ -13238,7 +13235,7 @@
         <v>825</v>
       </c>
       <c r="D330" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F330">
         <v>1.540593</v>
@@ -13267,7 +13264,7 @@
         <v>779</v>
       </c>
       <c r="D331" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E331">
         <v>0.26325</v>
@@ -13296,7 +13293,7 @@
         <v>826</v>
       </c>
       <c r="D332" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F332">
         <v>1.768771</v>
@@ -13325,7 +13322,7 @@
         <v>826</v>
       </c>
       <c r="D333" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E333">
         <v>1.701274</v>
@@ -13357,7 +13354,7 @@
         <v>826</v>
       </c>
       <c r="D334" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E334">
         <v>1.267851</v>
@@ -13389,7 +13386,7 @@
         <v>826</v>
       </c>
       <c r="D335" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E335">
         <v>1.922385</v>
@@ -13421,7 +13418,7 @@
         <v>820</v>
       </c>
       <c r="D336" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F336">
         <v>0.274631</v>
@@ -13450,7 +13447,7 @@
         <v>826</v>
       </c>
       <c r="D337" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E337">
         <v>1.049331</v>
@@ -13482,7 +13479,7 @@
         <v>826</v>
       </c>
       <c r="D338" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E338">
         <v>0.298299</v>
@@ -13514,7 +13511,7 @@
         <v>827</v>
       </c>
       <c r="D339" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E339">
         <v>2.689388</v>
@@ -13546,7 +13543,7 @@
         <v>798</v>
       </c>
       <c r="D340" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F340">
         <v>3.301936</v>
@@ -13575,7 +13572,7 @@
         <v>798</v>
       </c>
       <c r="D341" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E341">
         <v>0.243589</v>
@@ -13607,7 +13604,7 @@
         <v>826</v>
       </c>
       <c r="D342" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E342">
         <v>0.087883</v>
@@ -13639,7 +13636,7 @@
         <v>779</v>
       </c>
       <c r="D343" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E343">
         <v>0.156747</v>
@@ -13668,7 +13665,7 @@
         <v>797</v>
       </c>
       <c r="D344" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F344">
         <v>0.424344</v>
@@ -13697,7 +13694,7 @@
         <v>810</v>
       </c>
       <c r="D345" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E345">
         <v>0.211197</v>
@@ -13729,7 +13726,7 @@
         <v>828</v>
       </c>
       <c r="D346" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E346">
         <v>0.64464</v>
@@ -13761,7 +13758,7 @@
         <v>828</v>
       </c>
       <c r="D347" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E347">
         <v>1.278551</v>
@@ -13793,7 +13790,7 @@
         <v>820</v>
       </c>
       <c r="D348" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F348">
         <v>0.489227</v>
@@ -13822,7 +13819,7 @@
         <v>768</v>
       </c>
       <c r="D349" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E349">
         <v>0.03832</v>
@@ -13854,7 +13851,7 @@
         <v>768</v>
       </c>
       <c r="D350" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F350">
         <v>1.591424</v>
@@ -13883,7 +13880,7 @@
         <v>820</v>
       </c>
       <c r="D351" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F351">
         <v>1.113516</v>
@@ -13912,7 +13909,7 @@
         <v>820</v>
       </c>
       <c r="D352" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F352">
         <v>1.559981</v>
@@ -13941,7 +13938,7 @@
         <v>820</v>
       </c>
       <c r="D353" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F353">
         <v>1.149083</v>
@@ -13970,7 +13967,7 @@
         <v>769</v>
       </c>
       <c r="D354" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E354">
         <v>0.243322</v>
@@ -13999,7 +13996,7 @@
         <v>769</v>
       </c>
       <c r="D355" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E355">
         <v>0.512286</v>
@@ -14031,7 +14028,7 @@
         <v>820</v>
       </c>
       <c r="D356" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F356">
         <v>1.758381</v>
@@ -14060,7 +14057,7 @@
         <v>820</v>
       </c>
       <c r="D357" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F357">
         <v>4.382794</v>
@@ -14089,7 +14086,7 @@
         <v>788</v>
       </c>
       <c r="D358" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E358">
         <v>0.727263</v>
@@ -14121,7 +14118,7 @@
         <v>788</v>
       </c>
       <c r="D359" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E359">
         <v>0.13648</v>
@@ -14150,7 +14147,7 @@
         <v>788</v>
       </c>
       <c r="D360" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E360">
         <v>0.044556</v>
@@ -14182,7 +14179,7 @@
         <v>788</v>
       </c>
       <c r="D361" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E361">
         <v>0.526164</v>
@@ -14214,7 +14211,7 @@
         <v>788</v>
       </c>
       <c r="D362" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E362">
         <v>0.293029</v>
@@ -14246,7 +14243,7 @@
         <v>788</v>
       </c>
       <c r="D363" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E363">
         <v>0.234515</v>
@@ -14278,7 +14275,7 @@
         <v>765</v>
       </c>
       <c r="D364" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E364">
         <v>0.734662</v>
@@ -14310,7 +14307,7 @@
         <v>765</v>
       </c>
       <c r="D365" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E365">
         <v>0.749924</v>
@@ -14339,7 +14336,7 @@
         <v>765</v>
       </c>
       <c r="D366" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E366">
         <v>0.976763</v>
@@ -14371,7 +14368,7 @@
         <v>765</v>
       </c>
       <c r="D367" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E367">
         <v>0.961584</v>
@@ -14403,7 +14400,7 @@
         <v>765</v>
       </c>
       <c r="D368" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E368">
         <v>0.5577220000000001</v>
@@ -14435,7 +14432,7 @@
         <v>765</v>
       </c>
       <c r="D369" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E369">
         <v>0.7045400000000001</v>
@@ -14467,7 +14464,7 @@
         <v>765</v>
       </c>
       <c r="D370" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E370">
         <v>0.105484</v>
@@ -14499,7 +14496,7 @@
         <v>829</v>
       </c>
       <c r="D371" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E371">
         <v>0.023983</v>
@@ -14531,7 +14528,7 @@
         <v>829</v>
       </c>
       <c r="D372" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F372">
         <v>1.498632</v>
@@ -14560,7 +14557,7 @@
         <v>829</v>
       </c>
       <c r="D373" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F373">
         <v>1.751609</v>
@@ -14589,7 +14586,7 @@
         <v>829</v>
       </c>
       <c r="D374" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F374">
         <v>1.457956</v>
@@ -14618,7 +14615,7 @@
         <v>774</v>
       </c>
       <c r="D375" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E375">
         <v>0.365267</v>
@@ -14650,7 +14647,7 @@
         <v>776</v>
       </c>
       <c r="D376" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E376">
         <v>0.6124270000000001</v>
@@ -14682,7 +14679,7 @@
         <v>776</v>
       </c>
       <c r="D377" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E377">
         <v>0.495095</v>
@@ -14714,7 +14711,7 @@
         <v>830</v>
       </c>
       <c r="D378" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F378">
         <v>2.691978</v>
@@ -14743,7 +14740,7 @@
         <v>819</v>
       </c>
       <c r="D379" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E379">
         <v>0.896946</v>
@@ -14772,7 +14769,7 @@
         <v>830</v>
       </c>
       <c r="D380" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F380">
         <v>1.721277</v>
@@ -14801,7 +14798,7 @@
         <v>761</v>
       </c>
       <c r="D381" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F381">
         <v>0.247549</v>
@@ -14830,7 +14827,7 @@
         <v>818</v>
       </c>
       <c r="D382" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E382">
         <v>0.640512</v>
@@ -14859,7 +14856,7 @@
         <v>830</v>
       </c>
       <c r="D383" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F383">
         <v>4.050066</v>
@@ -14888,7 +14885,7 @@
         <v>831</v>
       </c>
       <c r="D384" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E384">
         <v>1.629118</v>
@@ -14920,7 +14917,7 @@
         <v>831</v>
       </c>
       <c r="D385" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E385">
         <v>0.201489</v>
@@ -14952,7 +14949,7 @@
         <v>767</v>
       </c>
       <c r="D386" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E386">
         <v>0.970263</v>
@@ -14984,7 +14981,7 @@
         <v>767</v>
       </c>
       <c r="D387" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E387">
         <v>0.786789</v>
@@ -15005,7 +15002,7 @@
         <v>5</v>
       </c>
       <c r="K387" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -15019,7 +15016,7 @@
         <v>767</v>
       </c>
       <c r="D388" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E388">
         <v>1.663088</v>
@@ -15051,7 +15048,7 @@
         <v>767</v>
       </c>
       <c r="D389" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E389">
         <v>0.426003</v>
@@ -15083,7 +15080,7 @@
         <v>767</v>
       </c>
       <c r="D390" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E390">
         <v>0.99537</v>
@@ -15115,7 +15112,7 @@
         <v>767</v>
       </c>
       <c r="D391" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E391">
         <v>0.45812</v>
@@ -15147,7 +15144,7 @@
         <v>781</v>
       </c>
       <c r="D392" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E392">
         <v>0.344029</v>
@@ -15179,7 +15176,7 @@
         <v>767</v>
       </c>
       <c r="D393" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E393">
         <v>0.618665</v>
@@ -15211,7 +15208,7 @@
         <v>818</v>
       </c>
       <c r="D394" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E394">
         <v>1.254495</v>
@@ -15243,7 +15240,7 @@
         <v>818</v>
       </c>
       <c r="D395" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E395">
         <v>1.3046</v>
@@ -15275,7 +15272,7 @@
         <v>767</v>
       </c>
       <c r="D396" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E396">
         <v>0.010906</v>
@@ -15307,7 +15304,7 @@
         <v>767</v>
       </c>
       <c r="D397" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E397">
         <v>1.084414</v>
@@ -15339,7 +15336,7 @@
         <v>818</v>
       </c>
       <c r="D398" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E398">
         <v>0.365028</v>
@@ -15371,7 +15368,7 @@
         <v>818</v>
       </c>
       <c r="D399" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F399">
         <v>0.92746</v>
@@ -15400,7 +15397,7 @@
         <v>818</v>
       </c>
       <c r="D400" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E400">
         <v>0.268974</v>
@@ -15432,7 +15429,7 @@
         <v>767</v>
       </c>
       <c r="D401" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E401">
         <v>0.840954</v>
@@ -15461,7 +15458,7 @@
         <v>767</v>
       </c>
       <c r="D402" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E402">
         <v>0.817536</v>
@@ -15490,7 +15487,7 @@
         <v>767</v>
       </c>
       <c r="D403" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E403">
         <v>0.6332449999999999</v>
@@ -15519,7 +15516,7 @@
         <v>761</v>
       </c>
       <c r="D404" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E404">
         <v>0.371797</v>
@@ -15551,7 +15548,7 @@
         <v>761</v>
       </c>
       <c r="D405" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F405">
         <v>0.491259</v>
@@ -15580,7 +15577,7 @@
         <v>761</v>
       </c>
       <c r="D406" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E406">
         <v>0.157313</v>
@@ -15612,7 +15609,7 @@
         <v>761</v>
       </c>
       <c r="D407" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E407">
         <v>0.226512</v>
@@ -15644,7 +15641,7 @@
         <v>783</v>
       </c>
       <c r="D408" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E408">
         <v>0.245511</v>
@@ -15676,7 +15673,7 @@
         <v>832</v>
       </c>
       <c r="D409" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E409">
         <v>2.264256</v>
@@ -15708,7 +15705,7 @@
         <v>761</v>
       </c>
       <c r="D410" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F410">
         <v>1.95562</v>
@@ -15737,7 +15734,7 @@
         <v>761</v>
       </c>
       <c r="D411" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F411">
         <v>1.136405</v>
@@ -15766,7 +15763,7 @@
         <v>761</v>
       </c>
       <c r="D412" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F412">
         <v>0.584716</v>
@@ -15795,7 +15792,7 @@
         <v>761</v>
       </c>
       <c r="D413" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F413">
         <v>0.850672</v>
@@ -15824,7 +15821,7 @@
         <v>761</v>
       </c>
       <c r="D414" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F414">
         <v>1.505534</v>
@@ -15853,7 +15850,7 @@
         <v>761</v>
       </c>
       <c r="D415" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F415">
         <v>0.537475</v>
@@ -15882,7 +15879,7 @@
         <v>761</v>
       </c>
       <c r="D416" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F416">
         <v>0.808328</v>
@@ -15911,7 +15908,7 @@
         <v>819</v>
       </c>
       <c r="D417" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E417">
         <v>0.506393</v>
@@ -15943,7 +15940,7 @@
         <v>767</v>
       </c>
       <c r="D418" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E418">
         <v>0.83235</v>
@@ -15975,7 +15972,7 @@
         <v>767</v>
       </c>
       <c r="D419" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E419">
         <v>0.40035</v>
@@ -16007,7 +16004,7 @@
         <v>767</v>
       </c>
       <c r="D420" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E420">
         <v>0.469416</v>
@@ -16039,7 +16036,7 @@
         <v>833</v>
       </c>
       <c r="D421" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E421">
         <v>0.181972</v>
@@ -16071,7 +16068,7 @@
         <v>810</v>
       </c>
       <c r="D422" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E422">
         <v>0.142562</v>
@@ -16103,7 +16100,7 @@
         <v>810</v>
       </c>
       <c r="D423" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E423">
         <v>0.638437</v>
@@ -16135,7 +16132,7 @@
         <v>810</v>
       </c>
       <c r="D424" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E424">
         <v>0.312931</v>
@@ -16167,7 +16164,7 @@
         <v>810</v>
       </c>
       <c r="D425" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E425">
         <v>1.154221</v>
@@ -16199,7 +16196,7 @@
         <v>810</v>
       </c>
       <c r="D426" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F426">
         <v>0.6192879999999999</v>
@@ -16228,7 +16225,7 @@
         <v>810</v>
       </c>
       <c r="D427" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E427">
         <v>0.797963</v>
@@ -16260,7 +16257,7 @@
         <v>797</v>
       </c>
       <c r="D428" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F428">
         <v>1.560719</v>
@@ -16289,7 +16286,7 @@
         <v>804</v>
       </c>
       <c r="D429" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E429">
         <v>0.194849</v>
@@ -16321,7 +16318,7 @@
         <v>806</v>
       </c>
       <c r="D430" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E430">
         <v>0.194395</v>
@@ -16353,7 +16350,7 @@
         <v>807</v>
       </c>
       <c r="D431" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E431">
         <v>0.832453</v>
@@ -16385,7 +16382,7 @@
         <v>808</v>
       </c>
       <c r="D432" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E432">
         <v>0.7595420000000001</v>
@@ -16417,7 +16414,7 @@
         <v>809</v>
       </c>
       <c r="D433" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E433">
         <v>0.852714</v>
@@ -16449,7 +16446,7 @@
         <v>834</v>
       </c>
       <c r="D434" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E434">
         <v>0.265056</v>
@@ -16481,7 +16478,7 @@
         <v>768</v>
       </c>
       <c r="D435" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E435">
         <v>1.257017</v>
@@ -16513,7 +16510,7 @@
         <v>776</v>
       </c>
       <c r="D436" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E436">
         <v>0.193238</v>
@@ -16545,7 +16542,7 @@
         <v>756</v>
       </c>
       <c r="D437" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E437">
         <v>0.142839</v>
@@ -16577,7 +16574,7 @@
         <v>812</v>
       </c>
       <c r="D438" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E438">
         <v>0.8990320000000001</v>
@@ -16609,7 +16606,7 @@
         <v>812</v>
       </c>
       <c r="D439" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E439">
         <v>0.642144</v>
@@ -16641,7 +16638,7 @@
         <v>812</v>
       </c>
       <c r="D440" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E440">
         <v>0.290839</v>
@@ -16673,7 +16670,7 @@
         <v>812</v>
       </c>
       <c r="D441" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E441">
         <v>0.254711</v>
@@ -16705,7 +16702,7 @@
         <v>812</v>
       </c>
       <c r="D442" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E442">
         <v>0.341815</v>
@@ -16737,7 +16734,7 @@
         <v>813</v>
       </c>
       <c r="D443" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E443">
         <v>0.41118</v>
@@ -16769,7 +16766,7 @@
         <v>835</v>
       </c>
       <c r="D444" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E444">
         <v>0.032637</v>
@@ -16798,7 +16795,7 @@
         <v>835</v>
       </c>
       <c r="D445" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E445">
         <v>0.12545</v>
@@ -16830,7 +16827,7 @@
         <v>776</v>
       </c>
       <c r="D446" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E446">
         <v>0.096058</v>
@@ -16862,7 +16859,7 @@
         <v>809</v>
       </c>
       <c r="D447" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E447">
         <v>0.368005</v>
@@ -16894,7 +16891,7 @@
         <v>835</v>
       </c>
       <c r="D448" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E448">
         <v>0.148783</v>
@@ -16926,7 +16923,7 @@
         <v>835</v>
       </c>
       <c r="D449" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E449">
         <v>0.189872</v>
@@ -16958,7 +16955,7 @@
         <v>835</v>
       </c>
       <c r="D450" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E450">
         <v>1.017325</v>
@@ -16990,7 +16987,7 @@
         <v>835</v>
       </c>
       <c r="D451" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E451">
         <v>0.206355</v>
@@ -17022,7 +17019,7 @@
         <v>773</v>
       </c>
       <c r="D452" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F452">
         <v>0.259265</v>
@@ -17051,7 +17048,7 @@
         <v>836</v>
       </c>
       <c r="D453" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E453">
         <v>0.757812</v>
@@ -17083,7 +17080,7 @@
         <v>836</v>
       </c>
       <c r="D454" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E454">
         <v>0.496941</v>
@@ -17115,7 +17112,7 @@
         <v>836</v>
       </c>
       <c r="D455" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E455">
         <v>0.5824510000000001</v>
@@ -17147,7 +17144,7 @@
         <v>836</v>
       </c>
       <c r="D456" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F456">
         <v>1.55956</v>
@@ -17176,7 +17173,7 @@
         <v>836</v>
       </c>
       <c r="D457" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F457">
         <v>1.725814</v>
@@ -17205,7 +17202,7 @@
         <v>836</v>
       </c>
       <c r="D458" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F458">
         <v>1.964447</v>
@@ -17234,7 +17231,7 @@
         <v>821</v>
       </c>
       <c r="D459" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E459">
         <v>0.150744</v>
@@ -17266,7 +17263,7 @@
         <v>768</v>
       </c>
       <c r="D460" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E460">
         <v>1.042703</v>
@@ -17298,7 +17295,7 @@
         <v>768</v>
       </c>
       <c r="D461" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E461">
         <v>1.064808</v>
@@ -17330,7 +17327,7 @@
         <v>749</v>
       </c>
       <c r="D462" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E462">
         <v>0.02311</v>
@@ -17362,7 +17359,7 @@
         <v>768</v>
       </c>
       <c r="D463" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E463">
         <v>1.007961</v>
@@ -17394,7 +17391,7 @@
         <v>791</v>
       </c>
       <c r="D464" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E464">
         <v>0.458663</v>
@@ -17426,7 +17423,7 @@
         <v>751</v>
       </c>
       <c r="D465" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F465">
         <v>0.553691</v>
@@ -17455,7 +17452,7 @@
         <v>751</v>
       </c>
       <c r="D466" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E466">
         <v>0.154712</v>
@@ -17487,7 +17484,7 @@
         <v>751</v>
       </c>
       <c r="D467" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E467">
         <v>0.014496</v>
@@ -17519,7 +17516,7 @@
         <v>790</v>
       </c>
       <c r="D468" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E468">
         <v>1.243642</v>
@@ -17551,7 +17548,7 @@
         <v>790</v>
       </c>
       <c r="D469" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E469">
         <v>1.598694</v>
@@ -17583,7 +17580,7 @@
         <v>837</v>
       </c>
       <c r="D470" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E470">
         <v>0.992571</v>
@@ -17615,7 +17612,7 @@
         <v>837</v>
       </c>
       <c r="D471" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E471">
         <v>0.204849</v>
@@ -17647,7 +17644,7 @@
         <v>837</v>
       </c>
       <c r="D472" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E472">
         <v>0.577078</v>
@@ -17679,7 +17676,7 @@
         <v>837</v>
       </c>
       <c r="D473" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E473">
         <v>1.881601</v>
@@ -17711,7 +17708,7 @@
         <v>837</v>
       </c>
       <c r="D474" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E474">
         <v>1.347181</v>
@@ -17743,7 +17740,7 @@
         <v>837</v>
       </c>
       <c r="D475" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E475">
         <v>1.621836</v>
@@ -17775,7 +17772,7 @@
         <v>837</v>
       </c>
       <c r="D476" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E476">
         <v>1.137886</v>
@@ -17807,7 +17804,7 @@
         <v>837</v>
       </c>
       <c r="D477" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E477">
         <v>0.839537</v>
@@ -17839,7 +17836,7 @@
         <v>768</v>
       </c>
       <c r="D478" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E478">
         <v>0.674297</v>
@@ -17871,7 +17868,7 @@
         <v>768</v>
       </c>
       <c r="D479" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E479">
         <v>0.299015</v>
@@ -17903,7 +17900,7 @@
         <v>768</v>
       </c>
       <c r="D480" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E480">
         <v>0.605734</v>
@@ -17935,7 +17932,7 @@
         <v>838</v>
       </c>
       <c r="D481" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E481">
         <v>1.453499</v>
@@ -17967,7 +17964,7 @@
         <v>838</v>
       </c>
       <c r="D482" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E482">
         <v>0.55989</v>
@@ -17999,7 +17996,7 @@
         <v>838</v>
       </c>
       <c r="D483" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E483">
         <v>1.600741</v>
@@ -18031,7 +18028,7 @@
         <v>838</v>
       </c>
       <c r="D484" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E484">
         <v>1.198378</v>
@@ -18063,7 +18060,7 @@
         <v>768</v>
       </c>
       <c r="D485" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E485">
         <v>0.798206</v>
@@ -18095,7 +18092,7 @@
         <v>797</v>
       </c>
       <c r="D486" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E486">
         <v>0.069009</v>
@@ -18127,7 +18124,7 @@
         <v>838</v>
       </c>
       <c r="D487" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E487">
         <v>0.537319</v>
@@ -18159,7 +18156,7 @@
         <v>838</v>
       </c>
       <c r="D488" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F488">
         <v>0.959898</v>
@@ -18188,7 +18185,7 @@
         <v>819</v>
       </c>
       <c r="D489" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E489">
         <v>0.6424</v>
@@ -18220,7 +18217,7 @@
         <v>819</v>
       </c>
       <c r="D490" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E490">
         <v>1.513953</v>
@@ -18252,7 +18249,7 @@
         <v>819</v>
       </c>
       <c r="D491" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E491">
         <v>2.251118</v>
@@ -18284,7 +18281,7 @@
         <v>819</v>
       </c>
       <c r="D492" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E492">
         <v>1.197779</v>
@@ -18313,7 +18310,7 @@
         <v>797</v>
       </c>
       <c r="D493" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F493">
         <v>0.637865</v>
@@ -18342,7 +18339,7 @@
         <v>819</v>
       </c>
       <c r="D494" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E494">
         <v>1.045621</v>
@@ -18374,7 +18371,7 @@
         <v>819</v>
       </c>
       <c r="D495" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E495">
         <v>0.572441</v>
@@ -18406,7 +18403,7 @@
         <v>819</v>
       </c>
       <c r="D496" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E496">
         <v>1.207203</v>
@@ -18438,7 +18435,7 @@
         <v>819</v>
       </c>
       <c r="D497" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E497">
         <v>2.344111</v>
@@ -18470,7 +18467,7 @@
         <v>819</v>
       </c>
       <c r="D498" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E498">
         <v>0.78487</v>
@@ -18499,7 +18496,7 @@
         <v>819</v>
       </c>
       <c r="D499" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E499">
         <v>1.118085</v>
@@ -18528,7 +18525,7 @@
         <v>819</v>
       </c>
       <c r="D500" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E500">
         <v>2.000442</v>
@@ -18557,7 +18554,7 @@
         <v>797</v>
       </c>
       <c r="D501" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F501">
         <v>0.409246</v>
@@ -18586,7 +18583,7 @@
         <v>797</v>
       </c>
       <c r="D502" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F502">
         <v>0.856187</v>
@@ -18615,7 +18612,7 @@
         <v>797</v>
       </c>
       <c r="D503" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F503">
         <v>1.532687</v>
@@ -18644,7 +18641,7 @@
         <v>797</v>
       </c>
       <c r="D504" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F504">
         <v>1.312337</v>
@@ -18673,7 +18670,7 @@
         <v>797</v>
       </c>
       <c r="D505" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F505">
         <v>0.507163</v>
@@ -18702,7 +18699,7 @@
         <v>797</v>
       </c>
       <c r="D506" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F506">
         <v>0.761296</v>
@@ -18731,7 +18728,7 @@
         <v>797</v>
       </c>
       <c r="D507" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F507">
         <v>0.468908</v>
@@ -18760,7 +18757,7 @@
         <v>839</v>
       </c>
       <c r="D508" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E508">
         <v>0.279676</v>
@@ -18792,7 +18789,7 @@
         <v>839</v>
       </c>
       <c r="D509" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F509">
         <v>0.569682</v>
@@ -18818,10 +18815,10 @@
         <v>518</v>
       </c>
       <c r="C510" t="s">
-        <v>840</v>
+        <v>758</v>
       </c>
       <c r="D510" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F510">
         <v>0.116334</v>
@@ -18850,7 +18847,7 @@
         <v>832</v>
       </c>
       <c r="D511" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F511">
         <v>2.497247</v>
@@ -18876,10 +18873,10 @@
         <v>520</v>
       </c>
       <c r="C512" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D512" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E512">
         <v>0.631526</v>
@@ -18908,10 +18905,10 @@
         <v>521</v>
       </c>
       <c r="C513" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D513" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E513">
         <v>1.78845</v>
@@ -18940,10 +18937,10 @@
         <v>522</v>
       </c>
       <c r="C514" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D514" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E514">
         <v>1.065011</v>
@@ -18975,7 +18972,7 @@
         <v>799</v>
       </c>
       <c r="D515" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E515">
         <v>0.08575000000000001</v>
@@ -19007,7 +19004,7 @@
         <v>777</v>
       </c>
       <c r="D516" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E516">
         <v>1.199313</v>
@@ -19036,10 +19033,10 @@
         <v>525</v>
       </c>
       <c r="C517" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D517" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E517">
         <v>0.516174</v>
@@ -19068,10 +19065,10 @@
         <v>526</v>
       </c>
       <c r="C518" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D518" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E518">
         <v>0.548206</v>
@@ -19100,10 +19097,10 @@
         <v>527</v>
       </c>
       <c r="C519" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D519" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E519">
         <v>0.974807</v>
@@ -19132,10 +19129,10 @@
         <v>528</v>
       </c>
       <c r="C520" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D520" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E520">
         <v>1.035048</v>
@@ -19164,10 +19161,10 @@
         <v>529</v>
       </c>
       <c r="C521" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D521" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E521">
         <v>1.913953</v>
@@ -19196,10 +19193,10 @@
         <v>530</v>
       </c>
       <c r="C522" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D522" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E522">
         <v>1.323348</v>
@@ -19228,10 +19225,10 @@
         <v>531</v>
       </c>
       <c r="C523" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D523" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E523">
         <v>1.576182</v>
@@ -19263,7 +19260,7 @@
         <v>774</v>
       </c>
       <c r="D524" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F524">
         <v>1.158653</v>
@@ -19292,7 +19289,7 @@
         <v>774</v>
       </c>
       <c r="D525" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F525">
         <v>0.505978</v>
@@ -19321,7 +19318,7 @@
         <v>774</v>
       </c>
       <c r="D526" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E526">
         <v>0.058016</v>
@@ -19353,7 +19350,7 @@
         <v>767</v>
       </c>
       <c r="D527" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E527">
         <v>0.482541</v>
@@ -19382,7 +19379,7 @@
         <v>767</v>
       </c>
       <c r="D528" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E528">
         <v>0.253903</v>
@@ -19411,10 +19408,10 @@
         <v>537</v>
       </c>
       <c r="C529" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D529" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E529">
         <v>1.606253</v>
@@ -19440,10 +19437,10 @@
         <v>538</v>
       </c>
       <c r="C530" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D530" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E530">
         <v>0.513864</v>
@@ -19472,10 +19469,10 @@
         <v>539</v>
       </c>
       <c r="C531" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D531" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E531">
         <v>0.507026</v>
@@ -19507,7 +19504,7 @@
         <v>767</v>
       </c>
       <c r="D532" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F532">
         <v>0.515279</v>
@@ -19533,10 +19530,10 @@
         <v>541</v>
       </c>
       <c r="C533" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D533" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E533">
         <v>0.5527</v>
@@ -19565,10 +19562,10 @@
         <v>542</v>
       </c>
       <c r="C534" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D534" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E534">
         <v>1.571101</v>
@@ -19597,10 +19594,10 @@
         <v>543</v>
       </c>
       <c r="C535" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D535" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E535">
         <v>2.06011</v>
@@ -19629,10 +19626,10 @@
         <v>544</v>
       </c>
       <c r="C536" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D536" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E536">
         <v>1.291923</v>
@@ -19661,10 +19658,10 @@
         <v>545</v>
       </c>
       <c r="C537" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D537" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E537">
         <v>1.954748</v>
@@ -19690,10 +19687,10 @@
         <v>546</v>
       </c>
       <c r="C538" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D538" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E538">
         <v>1.909325</v>
@@ -19725,7 +19722,7 @@
         <v>779</v>
       </c>
       <c r="D539" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E539">
         <v>0.9460229999999999</v>
@@ -19754,10 +19751,10 @@
         <v>548</v>
       </c>
       <c r="C540" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D540" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F540">
         <v>0.702238</v>
@@ -19783,10 +19780,10 @@
         <v>549</v>
       </c>
       <c r="C541" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D541" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F541">
         <v>3.974127</v>
@@ -19812,10 +19809,10 @@
         <v>550</v>
       </c>
       <c r="C542" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D542" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E542">
         <v>0.694985</v>
@@ -19844,10 +19841,10 @@
         <v>551</v>
       </c>
       <c r="C543" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D543" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E543">
         <v>1.006677</v>
@@ -19873,10 +19870,10 @@
         <v>552</v>
       </c>
       <c r="C544" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D544" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E544">
         <v>2.038583</v>
@@ -19905,10 +19902,10 @@
         <v>553</v>
       </c>
       <c r="C545" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D545" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E545">
         <v>0.835055</v>
@@ -19937,10 +19934,10 @@
         <v>554</v>
       </c>
       <c r="C546" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D546" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E546">
         <v>1.297223</v>
@@ -19966,10 +19963,10 @@
         <v>555</v>
       </c>
       <c r="C547" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D547" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E547">
         <v>1.601933</v>
@@ -19998,10 +19995,10 @@
         <v>556</v>
       </c>
       <c r="C548" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D548" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E548">
         <v>1.147089</v>
@@ -20030,10 +20027,10 @@
         <v>557</v>
       </c>
       <c r="C549" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D549" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E549">
         <v>0.683819</v>
@@ -20062,10 +20059,10 @@
         <v>558</v>
       </c>
       <c r="C550" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D550" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E550">
         <v>0.421089</v>
@@ -20094,10 +20091,10 @@
         <v>559</v>
       </c>
       <c r="C551" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D551" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E551">
         <v>0.318879</v>
@@ -20126,10 +20123,10 @@
         <v>560</v>
       </c>
       <c r="C552" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D552" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E552">
         <v>0.019121</v>
@@ -20161,7 +20158,7 @@
         <v>836</v>
       </c>
       <c r="D553" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F553">
         <v>0.197954</v>
@@ -20187,10 +20184,10 @@
         <v>562</v>
       </c>
       <c r="C554" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D554" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E554">
         <v>0.305871</v>
@@ -20222,7 +20219,7 @@
         <v>786</v>
       </c>
       <c r="D555" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E555">
         <v>0.042583</v>
@@ -20254,7 +20251,7 @@
         <v>797</v>
       </c>
       <c r="D556" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F556">
         <v>0.27904</v>
@@ -20283,7 +20280,7 @@
         <v>784</v>
       </c>
       <c r="D557" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F557">
         <v>0.09610200000000001</v>
@@ -20312,7 +20309,7 @@
         <v>784</v>
       </c>
       <c r="D558" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F558">
         <v>0.189924</v>
@@ -20341,7 +20338,7 @@
         <v>793</v>
       </c>
       <c r="D559" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E559">
         <v>0.116961</v>
@@ -20373,7 +20370,7 @@
         <v>825</v>
       </c>
       <c r="D560" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F560">
         <v>1.302481</v>
@@ -20402,7 +20399,7 @@
         <v>825</v>
       </c>
       <c r="D561" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F561">
         <v>1.258093</v>
@@ -20428,10 +20425,10 @@
         <v>570</v>
       </c>
       <c r="C562" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D562" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E562">
         <v>0.242262</v>
@@ -20463,7 +20460,7 @@
         <v>770</v>
       </c>
       <c r="D563" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E563">
         <v>0.519649</v>
@@ -20492,7 +20489,7 @@
         <v>770</v>
       </c>
       <c r="D564" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E564">
         <v>0.627923</v>
@@ -20524,7 +20521,7 @@
         <v>770</v>
       </c>
       <c r="D565" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E565">
         <v>0.391144</v>
@@ -20556,7 +20553,7 @@
         <v>770</v>
       </c>
       <c r="D566" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E566">
         <v>0.706363</v>
@@ -20588,7 +20585,7 @@
         <v>780</v>
       </c>
       <c r="D567" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E567">
         <v>0.212793</v>
@@ -20617,10 +20614,10 @@
         <v>576</v>
       </c>
       <c r="C568" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D568" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F568">
         <v>0.447972</v>
@@ -20649,7 +20646,7 @@
         <v>780</v>
       </c>
       <c r="D569" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E569">
         <v>0.278972</v>
@@ -20681,7 +20678,7 @@
         <v>797</v>
       </c>
       <c r="D570" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F570">
         <v>0.658479</v>
@@ -20710,7 +20707,7 @@
         <v>797</v>
       </c>
       <c r="D571" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F571">
         <v>0.765288</v>
@@ -20739,7 +20736,7 @@
         <v>797</v>
       </c>
       <c r="D572" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F572">
         <v>1.315595</v>
@@ -20768,7 +20765,7 @@
         <v>781</v>
       </c>
       <c r="D573" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E573">
         <v>0.160892</v>
@@ -20797,10 +20794,10 @@
         <v>582</v>
       </c>
       <c r="C574" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D574" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F574">
         <v>0.142868</v>
@@ -20829,7 +20826,7 @@
         <v>774</v>
       </c>
       <c r="D575" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F575">
         <v>0.057878</v>
@@ -20855,10 +20852,10 @@
         <v>584</v>
       </c>
       <c r="C576" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D576" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E576">
         <v>0.128616</v>
@@ -20890,7 +20887,7 @@
         <v>829</v>
       </c>
       <c r="D577" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F577">
         <v>0.897191</v>
@@ -20919,7 +20916,7 @@
         <v>829</v>
       </c>
       <c r="D578" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F578">
         <v>1.274196</v>
@@ -20948,7 +20945,7 @@
         <v>755</v>
       </c>
       <c r="D579" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E579">
         <v>1.288284</v>
@@ -20980,7 +20977,7 @@
         <v>755</v>
       </c>
       <c r="D580" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E580">
         <v>1.056504</v>
@@ -21012,7 +21009,7 @@
         <v>755</v>
       </c>
       <c r="D581" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E581">
         <v>2.067157</v>
@@ -21041,10 +21038,10 @@
         <v>590</v>
       </c>
       <c r="C582" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D582" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E582">
         <v>0.060829</v>
@@ -21073,10 +21070,10 @@
         <v>591</v>
       </c>
       <c r="C583" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D583" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E583">
         <v>0.311719</v>
@@ -21105,10 +21102,10 @@
         <v>592</v>
       </c>
       <c r="C584" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D584" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F584">
         <v>0.492847</v>
@@ -21137,7 +21134,7 @@
         <v>773</v>
       </c>
       <c r="D585" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E585">
         <v>0.126004</v>
@@ -21163,10 +21160,10 @@
         <v>594</v>
       </c>
       <c r="C586" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D586" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E586">
         <v>0.016533</v>
@@ -21198,7 +21195,7 @@
         <v>761</v>
       </c>
       <c r="D587" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F587">
         <v>0.385974</v>
@@ -21227,7 +21224,7 @@
         <v>761</v>
       </c>
       <c r="D588" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E588">
         <v>0.6943820000000001</v>
@@ -21259,7 +21256,7 @@
         <v>761</v>
       </c>
       <c r="D589" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E589">
         <v>0.179218</v>
@@ -21291,7 +21288,7 @@
         <v>761</v>
       </c>
       <c r="D590" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E590">
         <v>0.085811</v>
@@ -21323,7 +21320,7 @@
         <v>761</v>
       </c>
       <c r="D591" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F591">
         <v>1.250315</v>
@@ -21349,10 +21346,10 @@
         <v>600</v>
       </c>
       <c r="C592" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D592" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E592">
         <v>0.221291</v>
@@ -21381,10 +21378,10 @@
         <v>601</v>
       </c>
       <c r="C593" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D593" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F593">
         <v>0.039828</v>
@@ -21410,10 +21407,10 @@
         <v>602</v>
       </c>
       <c r="C594" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D594" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F594">
         <v>0.752236</v>
@@ -21442,7 +21439,7 @@
         <v>755</v>
       </c>
       <c r="D595" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E595">
         <v>1.134021</v>
@@ -21471,10 +21468,10 @@
         <v>604</v>
       </c>
       <c r="C596" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D596" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E596">
         <v>0.173881</v>
@@ -21506,7 +21503,7 @@
         <v>755</v>
       </c>
       <c r="D597" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E597">
         <v>1.217136</v>
@@ -21535,7 +21532,7 @@
         <v>755</v>
       </c>
       <c r="D598" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E598">
         <v>1.633401</v>
@@ -21567,7 +21564,7 @@
         <v>755</v>
       </c>
       <c r="D599" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E599">
         <v>1.377292</v>
@@ -21596,10 +21593,10 @@
         <v>608</v>
       </c>
       <c r="C600" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D600" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F600">
         <v>1.031956</v>
@@ -21625,10 +21622,10 @@
         <v>609</v>
       </c>
       <c r="C601" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D601" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F601">
         <v>0.742314</v>
@@ -21654,10 +21651,10 @@
         <v>610</v>
       </c>
       <c r="C602" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D602" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F602">
         <v>1.586789</v>
@@ -21683,10 +21680,10 @@
         <v>611</v>
       </c>
       <c r="C603" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D603" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E603">
         <v>0.344387</v>
@@ -21715,10 +21712,10 @@
         <v>612</v>
       </c>
       <c r="C604" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D604" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E604">
         <v>0.261516</v>
@@ -21750,7 +21747,7 @@
         <v>783</v>
       </c>
       <c r="D605" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F605">
         <v>4.979598</v>
@@ -21779,7 +21776,7 @@
         <v>784</v>
       </c>
       <c r="D606" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F606">
         <v>1.082222</v>
@@ -21808,7 +21805,7 @@
         <v>784</v>
       </c>
       <c r="D607" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F607">
         <v>0.997976</v>
@@ -21837,7 +21834,7 @@
         <v>784</v>
       </c>
       <c r="D608" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F608">
         <v>1.25483</v>
@@ -21855,7 +21852,7 @@
         <v>5</v>
       </c>
       <c r="K608" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="609" spans="1:10">
@@ -21869,7 +21866,7 @@
         <v>784</v>
       </c>
       <c r="D609" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F609">
         <v>1.223774</v>
@@ -21898,7 +21895,7 @@
         <v>784</v>
       </c>
       <c r="D610" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F610">
         <v>0.773722</v>
@@ -21927,7 +21924,7 @@
         <v>784</v>
       </c>
       <c r="D611" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F611">
         <v>1.484347</v>
@@ -21956,7 +21953,7 @@
         <v>784</v>
       </c>
       <c r="D612" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F612">
         <v>1.396199</v>
@@ -21985,7 +21982,7 @@
         <v>784</v>
       </c>
       <c r="D613" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E613">
         <v>0.162241</v>
@@ -22017,7 +22014,7 @@
         <v>784</v>
       </c>
       <c r="D614" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F614">
         <v>1.820981</v>
@@ -22046,7 +22043,7 @@
         <v>832</v>
       </c>
       <c r="D615" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F615">
         <v>1.315169</v>
@@ -22075,7 +22072,7 @@
         <v>832</v>
       </c>
       <c r="D616" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F616">
         <v>0.957395</v>
@@ -22104,7 +22101,7 @@
         <v>832</v>
       </c>
       <c r="D617" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F617">
         <v>0.450225</v>
@@ -22133,7 +22130,7 @@
         <v>832</v>
       </c>
       <c r="D618" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F618">
         <v>5.930027</v>
@@ -22159,10 +22156,10 @@
         <v>627</v>
       </c>
       <c r="C619" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D619" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F619">
         <v>0.604316</v>
@@ -22188,10 +22185,10 @@
         <v>628</v>
       </c>
       <c r="C620" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D620" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E620">
         <v>0.682389</v>
@@ -22217,10 +22214,10 @@
         <v>629</v>
       </c>
       <c r="C621" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D621" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E621">
         <v>0.860019</v>
@@ -22249,10 +22246,10 @@
         <v>630</v>
       </c>
       <c r="C622" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D622" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E622">
         <v>0.856924</v>
@@ -22281,10 +22278,10 @@
         <v>631</v>
       </c>
       <c r="C623" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D623" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E623">
         <v>1.387082</v>
@@ -22313,10 +22310,10 @@
         <v>632</v>
       </c>
       <c r="C624" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D624" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E624">
         <v>0.414068</v>
@@ -22345,10 +22342,10 @@
         <v>633</v>
       </c>
       <c r="C625" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D625" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E625">
         <v>1.022016</v>
@@ -22377,10 +22374,10 @@
         <v>634</v>
       </c>
       <c r="C626" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D626" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E626">
         <v>0.601568</v>
@@ -22412,7 +22409,7 @@
         <v>755</v>
       </c>
       <c r="D627" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E627">
         <v>1.333552</v>
@@ -22444,7 +22441,7 @@
         <v>755</v>
       </c>
       <c r="D628" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E628">
         <v>0.468049</v>
@@ -22476,7 +22473,7 @@
         <v>755</v>
       </c>
       <c r="D629" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E629">
         <v>0.966916</v>
@@ -22508,7 +22505,7 @@
         <v>755</v>
       </c>
       <c r="D630" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E630">
         <v>1.907295</v>
@@ -22540,7 +22537,7 @@
         <v>755</v>
       </c>
       <c r="D631" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E631">
         <v>2.093059</v>
@@ -22572,7 +22569,7 @@
         <v>755</v>
       </c>
       <c r="D632" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F632">
         <v>0.500555</v>
@@ -22601,7 +22598,7 @@
         <v>795</v>
       </c>
       <c r="D633" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E633">
         <v>1.175724</v>
@@ -22630,10 +22627,10 @@
         <v>642</v>
       </c>
       <c r="C634" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D634" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E634">
         <v>0.528519</v>
@@ -22665,7 +22662,7 @@
         <v>833</v>
       </c>
       <c r="D635" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F635">
         <v>0.817592</v>
@@ -22694,7 +22691,7 @@
         <v>795</v>
       </c>
       <c r="D636" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E636">
         <v>1.058344</v>
@@ -22723,7 +22720,7 @@
         <v>795</v>
       </c>
       <c r="D637" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E637">
         <v>1.698705</v>
@@ -22755,7 +22752,7 @@
         <v>795</v>
       </c>
       <c r="D638" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E638">
         <v>1.716372</v>
@@ -22787,7 +22784,7 @@
         <v>795</v>
       </c>
       <c r="D639" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E639">
         <v>0.194189</v>
@@ -22819,7 +22816,7 @@
         <v>801</v>
       </c>
       <c r="D640" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E640">
         <v>0.467584</v>
@@ -22851,7 +22848,7 @@
         <v>801</v>
       </c>
       <c r="D641" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F641">
         <v>0.709346</v>
@@ -22880,7 +22877,7 @@
         <v>801</v>
       </c>
       <c r="D642" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F642">
         <v>1.565375</v>
@@ -22906,10 +22903,10 @@
         <v>651</v>
       </c>
       <c r="C643" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D643" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E643">
         <v>1.234338</v>
@@ -22938,7 +22935,7 @@
         <v>801</v>
       </c>
       <c r="D644" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F644">
         <v>1.616628</v>
@@ -22967,7 +22964,7 @@
         <v>801</v>
       </c>
       <c r="D645" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F645">
         <v>1.959369</v>
@@ -22996,7 +22993,7 @@
         <v>807</v>
       </c>
       <c r="D646" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E646">
         <v>0.292765</v>
@@ -23028,7 +23025,7 @@
         <v>807</v>
       </c>
       <c r="D647" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E647">
         <v>0.079369</v>
@@ -23060,7 +23057,7 @@
         <v>807</v>
       </c>
       <c r="D648" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E648">
         <v>0.112891</v>
@@ -23092,7 +23089,7 @@
         <v>807</v>
       </c>
       <c r="D649" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E649">
         <v>0.461282</v>
@@ -23124,7 +23121,7 @@
         <v>807</v>
       </c>
       <c r="D650" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E650">
         <v>0.327785</v>
@@ -23156,7 +23153,7 @@
         <v>807</v>
       </c>
       <c r="D651" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F651">
         <v>1.236737</v>
@@ -23185,7 +23182,7 @@
         <v>809</v>
       </c>
       <c r="D652" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E652">
         <v>0.007723</v>
@@ -23214,10 +23211,10 @@
         <v>661</v>
       </c>
       <c r="C653" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D653" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E653">
         <v>0.229203</v>
@@ -23246,10 +23243,10 @@
         <v>662</v>
       </c>
       <c r="C654" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D654" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E654">
         <v>0.557351</v>
@@ -23278,10 +23275,10 @@
         <v>663</v>
       </c>
       <c r="C655" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D655" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E655">
         <v>0.687966</v>
@@ -23310,10 +23307,10 @@
         <v>664</v>
       </c>
       <c r="C656" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D656" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E656">
         <v>2.03793</v>
@@ -23339,10 +23336,10 @@
         <v>665</v>
       </c>
       <c r="C657" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D657" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E657">
         <v>1.262648</v>
@@ -23368,10 +23365,10 @@
         <v>666</v>
       </c>
       <c r="C658" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D658" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E658">
         <v>1.348557</v>
@@ -23400,10 +23397,10 @@
         <v>667</v>
       </c>
       <c r="C659" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D659" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E659">
         <v>1.698826</v>
@@ -23432,10 +23429,10 @@
         <v>668</v>
       </c>
       <c r="C660" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D660" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E660">
         <v>2.020703</v>
@@ -23464,10 +23461,10 @@
         <v>669</v>
       </c>
       <c r="C661" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D661" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E661">
         <v>2.128666</v>
@@ -23496,10 +23493,10 @@
         <v>670</v>
       </c>
       <c r="C662" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D662" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E662">
         <v>2.548291</v>
@@ -23525,10 +23522,10 @@
         <v>671</v>
       </c>
       <c r="C663" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D663" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E663">
         <v>1.940968</v>
@@ -23557,10 +23554,10 @@
         <v>672</v>
       </c>
       <c r="C664" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D664" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E664">
         <v>1.18141</v>
@@ -23589,10 +23586,10 @@
         <v>673</v>
       </c>
       <c r="C665" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D665" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E665">
         <v>1.678887</v>
@@ -23621,10 +23618,10 @@
         <v>674</v>
       </c>
       <c r="C666" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D666" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E666">
         <v>0.283765</v>
@@ -23653,10 +23650,10 @@
         <v>675</v>
       </c>
       <c r="C667" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D667" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E667">
         <v>1.178706</v>
@@ -23688,7 +23685,7 @@
         <v>776</v>
       </c>
       <c r="D668" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F668">
         <v>0.640838</v>
@@ -23717,7 +23714,7 @@
         <v>776</v>
       </c>
       <c r="D669" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F669">
         <v>1.448272</v>
@@ -23746,7 +23743,7 @@
         <v>776</v>
       </c>
       <c r="D670" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F670">
         <v>0.93734</v>
@@ -23772,10 +23769,10 @@
         <v>679</v>
       </c>
       <c r="C671" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D671" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E671">
         <v>0.520102</v>
@@ -23807,7 +23804,7 @@
         <v>773</v>
       </c>
       <c r="D672" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E672">
         <v>0.9990560000000001</v>
@@ -23839,7 +23836,7 @@
         <v>773</v>
       </c>
       <c r="D673" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E673">
         <v>1.465526</v>
@@ -23868,10 +23865,10 @@
         <v>682</v>
       </c>
       <c r="C674" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D674" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E674">
         <v>1.07149</v>
@@ -23903,7 +23900,7 @@
         <v>773</v>
       </c>
       <c r="D675" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E675">
         <v>0.441641</v>
@@ -23932,10 +23929,10 @@
         <v>684</v>
       </c>
       <c r="C676" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D676" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E676">
         <v>0.043164</v>
@@ -23964,10 +23961,10 @@
         <v>685</v>
       </c>
       <c r="C677" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D677" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F677">
         <v>0.5863</v>
@@ -23993,10 +23990,10 @@
         <v>686</v>
       </c>
       <c r="C678" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D678" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F678">
         <v>0.678669</v>
@@ -24022,10 +24019,10 @@
         <v>687</v>
       </c>
       <c r="C679" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D679" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F679">
         <v>2.179217</v>
@@ -24051,10 +24048,10 @@
         <v>688</v>
       </c>
       <c r="C680" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D680" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F680">
         <v>0.125852</v>
@@ -24080,10 +24077,10 @@
         <v>689</v>
       </c>
       <c r="C681" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D681" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F681">
         <v>0.762949</v>
@@ -24109,10 +24106,10 @@
         <v>690</v>
       </c>
       <c r="C682" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D682" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E682">
         <v>0.000109</v>
@@ -24144,7 +24141,7 @@
         <v>773</v>
       </c>
       <c r="D683" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E683">
         <v>0.266574</v>
@@ -24173,10 +24170,10 @@
         <v>692</v>
       </c>
       <c r="C684" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D684" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E684">
         <v>0.196362</v>
@@ -24205,10 +24202,10 @@
         <v>693</v>
       </c>
       <c r="C685" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D685" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E685">
         <v>0.383717</v>
@@ -24237,10 +24234,10 @@
         <v>694</v>
       </c>
       <c r="C686" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D686" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E686">
         <v>0.265136</v>
@@ -24272,7 +24269,7 @@
         <v>812</v>
       </c>
       <c r="D687" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F687">
         <v>0.724768</v>
@@ -24301,7 +24298,7 @@
         <v>812</v>
       </c>
       <c r="D688" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E688">
         <v>0.131726</v>
@@ -24333,7 +24330,7 @@
         <v>812</v>
       </c>
       <c r="D689" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E689">
         <v>0.327471</v>
@@ -24365,7 +24362,7 @@
         <v>812</v>
       </c>
       <c r="D690" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E690">
         <v>0.09030299999999999</v>
@@ -24397,7 +24394,7 @@
         <v>812</v>
       </c>
       <c r="D691" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F691">
         <v>2.084716</v>
@@ -24423,10 +24420,10 @@
         <v>700</v>
       </c>
       <c r="C692" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D692" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E692">
         <v>1.900602</v>
@@ -24455,10 +24452,10 @@
         <v>701</v>
       </c>
       <c r="C693" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D693" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E693">
         <v>1.997176</v>
@@ -24490,7 +24487,7 @@
         <v>773</v>
       </c>
       <c r="D694" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E694">
         <v>0.8373620000000001</v>
@@ -24519,7 +24516,7 @@
         <v>813</v>
       </c>
       <c r="D695" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F695">
         <v>2.301624</v>
@@ -24545,10 +24542,10 @@
         <v>704</v>
       </c>
       <c r="C696" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D696" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E696">
         <v>0.256887</v>
@@ -24580,7 +24577,7 @@
         <v>773</v>
       </c>
       <c r="D697" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E697">
         <v>1.694667</v>
@@ -24612,7 +24609,7 @@
         <v>773</v>
       </c>
       <c r="D698" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E698">
         <v>0.471294</v>
@@ -24644,7 +24641,7 @@
         <v>773</v>
       </c>
       <c r="D699" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E699">
         <v>0.277914</v>
@@ -24673,10 +24670,10 @@
         <v>708</v>
       </c>
       <c r="C700" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D700" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E700">
         <v>0.5795</v>
@@ -24705,10 +24702,10 @@
         <v>709</v>
       </c>
       <c r="C701" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D701" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E701">
         <v>1.861696</v>
@@ -24737,10 +24734,10 @@
         <v>710</v>
       </c>
       <c r="C702" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D702" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E702">
         <v>1.122545</v>
@@ -24772,7 +24769,7 @@
         <v>808</v>
       </c>
       <c r="D703" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E703">
         <v>0.198272</v>
@@ -24804,7 +24801,7 @@
         <v>776</v>
       </c>
       <c r="D704" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F704">
         <v>1.055259</v>
@@ -24833,7 +24830,7 @@
         <v>776</v>
       </c>
       <c r="D705" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F705">
         <v>0.113517</v>
@@ -24862,7 +24859,7 @@
         <v>808</v>
       </c>
       <c r="D706" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E706">
         <v>0.12767</v>
@@ -24891,10 +24888,10 @@
         <v>715</v>
       </c>
       <c r="C707" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D707" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F707">
         <v>0.17768</v>
@@ -24920,10 +24917,10 @@
         <v>716</v>
       </c>
       <c r="C708" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D708" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F708">
         <v>0.459094</v>
@@ -24949,10 +24946,10 @@
         <v>717</v>
       </c>
       <c r="C709" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D709" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F709">
         <v>0.33557</v>
@@ -24978,10 +24975,10 @@
         <v>718</v>
       </c>
       <c r="C710" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D710" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F710">
         <v>0.578192</v>
@@ -25007,10 +25004,10 @@
         <v>719</v>
       </c>
       <c r="C711" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D711" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F711">
         <v>1.432949</v>
@@ -25036,10 +25033,10 @@
         <v>720</v>
       </c>
       <c r="C712" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D712" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F712">
         <v>0.6705179999999999</v>
@@ -25068,7 +25065,7 @@
         <v>774</v>
       </c>
       <c r="D713" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F713">
         <v>0.619021</v>
@@ -25094,10 +25091,10 @@
         <v>722</v>
       </c>
       <c r="C714" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D714" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E714">
         <v>0.203818</v>
@@ -25126,10 +25123,10 @@
         <v>723</v>
       </c>
       <c r="C715" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D715" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E715">
         <v>1.131446</v>
@@ -25158,10 +25155,10 @@
         <v>724</v>
       </c>
       <c r="C716" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D716" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E716">
         <v>1.576978</v>
@@ -25190,10 +25187,10 @@
         <v>725</v>
       </c>
       <c r="C717" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D717" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E717">
         <v>2.265538</v>
@@ -25222,10 +25219,10 @@
         <v>726</v>
       </c>
       <c r="C718" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D718" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E718">
         <v>0.666038</v>
@@ -25254,10 +25251,10 @@
         <v>727</v>
       </c>
       <c r="C719" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D719" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E719">
         <v>0.668356</v>
@@ -25286,10 +25283,10 @@
         <v>728</v>
       </c>
       <c r="C720" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D720" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F720">
         <v>0.330411</v>
@@ -25315,10 +25312,10 @@
         <v>729</v>
       </c>
       <c r="C721" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D721" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E721">
         <v>0.126327</v>
@@ -25347,10 +25344,10 @@
         <v>730</v>
       </c>
       <c r="C722" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D722" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E722">
         <v>0.033593</v>
@@ -25379,10 +25376,10 @@
         <v>731</v>
       </c>
       <c r="C723" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D723" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E723">
         <v>2.108493</v>
@@ -25411,10 +25408,10 @@
         <v>732</v>
       </c>
       <c r="C724" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D724" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E724">
         <v>0.967872</v>
@@ -25440,10 +25437,10 @@
         <v>733</v>
       </c>
       <c r="C725" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D725" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E725">
         <v>1.578446</v>
@@ -25469,10 +25466,10 @@
         <v>734</v>
       </c>
       <c r="C726" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D726" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E726">
         <v>0.670006</v>
@@ -25498,10 +25495,10 @@
         <v>735</v>
       </c>
       <c r="C727" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D727" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E727">
         <v>0.439928</v>
@@ -25530,10 +25527,10 @@
         <v>736</v>
       </c>
       <c r="C728" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D728" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E728">
         <v>0.055781</v>
@@ -25565,7 +25562,7 @@
         <v>779</v>
       </c>
       <c r="D729" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E729">
         <v>0.090652</v>
@@ -25594,7 +25591,7 @@
         <v>779</v>
       </c>
       <c r="D730" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E730">
         <v>0.765326</v>
@@ -25626,7 +25623,7 @@
         <v>828</v>
       </c>
       <c r="D731" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F731">
         <v>0.692662</v>
@@ -25652,10 +25649,10 @@
         <v>740</v>
       </c>
       <c r="C732" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D732" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E732">
         <v>0.183973</v>
@@ -25684,10 +25681,10 @@
         <v>741</v>
       </c>
       <c r="C733" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D733" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F733">
         <v>0.41206</v>
@@ -25713,10 +25710,10 @@
         <v>742</v>
       </c>
       <c r="C734" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D734" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E734">
         <v>1.005783</v>
@@ -25745,10 +25742,10 @@
         <v>743</v>
       </c>
       <c r="C735" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D735" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E735">
         <v>0.043093</v>
@@ -25777,10 +25774,10 @@
         <v>744</v>
       </c>
       <c r="C736" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D736" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F736">
         <v>1.734401</v>
@@ -25806,10 +25803,10 @@
         <v>745</v>
       </c>
       <c r="C737" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D737" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E737">
         <v>0.284434</v>
@@ -25838,10 +25835,10 @@
         <v>746</v>
       </c>
       <c r="C738" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D738" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F738">
         <v>1.983669</v>
@@ -25867,10 +25864,10 @@
         <v>747</v>
       </c>
       <c r="C739" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D739" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F739">
         <v>0.698103</v>
@@ -25896,10 +25893,10 @@
         <v>748</v>
       </c>
       <c r="C740" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D740" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E740">
         <v>0.054725</v>
